--- a/我的创作/股票/技术投资/SEAP交易系统/交易分析与计划/2021-12/交易分析/每股收益最高前600-主板.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/交易分析与计划/2021-12/交易分析/每股收益最高前600-主板.xlsx
@@ -24,6 +24,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="方正书宋_GBK"/>
+        <charset val="134"/>
+      </rPr>
       <t>基本每(元)</t>
     </r>
     <r>
@@ -51,6 +57,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>当前基底处于上升趋势的位置</t>
     </r>
     <r>
@@ -86,6 +99,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="FZShuSong-Z01"/>
+        <charset val="134"/>
+      </rPr>
       <t>价格行为</t>
     </r>
     <r>
@@ -119,6 +138,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <charset val="134"/>
+      </rPr>
       <t>200</t>
     </r>
     <r>
@@ -133,6 +158,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <charset val="134"/>
+      </rPr>
       <t>150</t>
     </r>
     <r>
@@ -147,6 +178,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <charset val="134"/>
+      </rPr>
       <t>50</t>
     </r>
     <r>
@@ -167,6 +204,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <charset val="134"/>
+      </rPr>
       <t>52</t>
     </r>
     <r>
@@ -181,6 +224,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF161616"/>
+        <rFont val="Helvetica Neue"/>
+        <charset val="134"/>
+      </rPr>
       <t>52</t>
     </r>
     <r>
@@ -198,6 +247,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="方正书宋_GBK"/>
+        <charset val="134"/>
+      </rPr>
       <t>当前股价相对于最低点百分比</t>
     </r>
     <r>
@@ -222,6 +277,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="方正书宋_GBK"/>
+        <charset val="134"/>
+      </rPr>
       <t>当前股价相对于最高点百分比</t>
     </r>
     <r>
@@ -252,6 +313,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="方正书宋_GBK"/>
+        <charset val="134"/>
+      </rPr>
       <t>不同收盘表现时交易量情况</t>
     </r>
     <r>
@@ -276,6 +343,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="方正书宋_GBK"/>
+        <charset val="134"/>
+      </rPr>
       <t>成交量收缩情况</t>
     </r>
     <r>
@@ -300,6 +373,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="方正书宋_GBK"/>
+        <charset val="134"/>
+      </rPr>
       <t>支撑位和压力位是否同步升高</t>
     </r>
     <r>
@@ -324,6 +403,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="方正书宋_GBK"/>
+        <charset val="134"/>
+      </rPr>
       <t>是否有网球行为出现</t>
     </r>
     <r>
@@ -348,6 +433,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="方正书宋_GBK"/>
+        <charset val="134"/>
+      </rPr>
       <t>上涨天数是否大于下跌天数</t>
     </r>
     <r>
@@ -372,6 +463,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="方正书宋_GBK"/>
+        <charset val="134"/>
+      </rPr>
       <t>支撑位</t>
     </r>
     <r>
@@ -386,6 +483,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="方正书宋_GBK"/>
+        <charset val="134"/>
+      </rPr>
       <t>阻力位</t>
     </r>
     <r>
@@ -400,6 +503,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="方正书宋_GBK"/>
+        <charset val="134"/>
+      </rPr>
       <t>支撑位</t>
     </r>
     <r>
@@ -414,6 +523,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="方正书宋_GBK"/>
+        <charset val="134"/>
+      </rPr>
       <t>阻力位</t>
     </r>
     <r>
@@ -428,6 +543,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="方正书宋_GBK"/>
+        <charset val="134"/>
+      </rPr>
       <t>支撑位</t>
     </r>
     <r>
@@ -442,6 +563,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="方正书宋_GBK"/>
+        <charset val="134"/>
+      </rPr>
       <t>阻力位</t>
     </r>
     <r>
@@ -456,6 +583,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="方正书宋_GBK"/>
+        <charset val="134"/>
+      </rPr>
       <t>支撑位</t>
     </r>
     <r>
@@ -470,6 +603,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="方正书宋_GBK"/>
+        <charset val="134"/>
+      </rPr>
       <t>阻力位</t>
     </r>
     <r>
@@ -484,6 +623,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="方正书宋_GBK"/>
+        <charset val="134"/>
+      </rPr>
       <t>支撑位</t>
     </r>
     <r>
@@ -498,6 +643,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="方正书宋_GBK"/>
+        <charset val="134"/>
+      </rPr>
       <t>阻力位</t>
     </r>
     <r>
@@ -512,6 +663,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="方正书宋_GBK"/>
+        <charset val="134"/>
+      </rPr>
       <t>支撑位</t>
     </r>
     <r>
@@ -547,6 +704,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="方正书宋_GBK"/>
+        <charset val="134"/>
+      </rPr>
       <t>收缩数量</t>
     </r>
     <r>
@@ -589,6 +752,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="方正书宋_GBK"/>
+        <charset val="134"/>
+      </rPr>
       <t>不宜入场</t>
     </r>
     <r>
@@ -623,6 +791,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="方正书宋_GBK"/>
+        <charset val="134"/>
+      </rPr>
       <t>不宜入场</t>
     </r>
     <r>
@@ -654,6 +827,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="方正书宋_GBK"/>
+        <charset val="134"/>
+      </rPr>
       <t>不宜入场</t>
     </r>
     <r>
@@ -682,6 +860,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="方正书宋_GBK"/>
+        <charset val="134"/>
+      </rPr>
       <t>不宜入场</t>
     </r>
     <r>
@@ -728,6 +911,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="方正书宋_GBK"/>
+        <charset val="134"/>
+      </rPr>
       <t>不宜入场</t>
     </r>
     <r>
@@ -759,6 +947,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="方正书宋_GBK"/>
+        <charset val="134"/>
+      </rPr>
       <t>不宜入场</t>
     </r>
     <r>
@@ -787,6 +980,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="方正书宋_GBK"/>
+        <charset val="134"/>
+      </rPr>
       <t>不宜入场</t>
     </r>
     <r>
@@ -839,6 +1037,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>汽车零部</t>
     </r>
     <r>
@@ -862,6 +1066,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="方正书宋_GBK"/>
+        <charset val="134"/>
+      </rPr>
       <t>不宜入场</t>
     </r>
     <r>
@@ -895,6 +1105,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="方正书宋_GBK"/>
+        <charset val="134"/>
+      </rPr>
       <t>暂不宜入场</t>
     </r>
     <r>
@@ -923,6 +1138,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>半导体及</t>
     </r>
     <r>
@@ -955,6 +1176,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>非汽车交</t>
     </r>
     <r>
@@ -972,6 +1199,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="方正书宋_GBK"/>
+        <charset val="134"/>
+      </rPr>
       <t>不宜入场</t>
     </r>
     <r>
@@ -1006,6 +1238,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="方正书宋_GBK"/>
+        <charset val="134"/>
+      </rPr>
       <t>不宜入场</t>
     </r>
     <r>
@@ -1037,6 +1274,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="方正书宋_GBK"/>
+        <charset val="134"/>
+      </rPr>
       <t>不宜入场</t>
     </r>
     <r>
@@ -1065,6 +1307,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="方正书宋_GBK"/>
+        <charset val="134"/>
+      </rPr>
       <t>不宜入场</t>
     </r>
     <r>
@@ -1114,6 +1361,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="方正书宋_GBK"/>
+        <charset val="134"/>
+      </rPr>
       <t>不宜入场</t>
     </r>
     <r>
@@ -1148,6 +1400,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="方正书宋_GBK"/>
+        <charset val="134"/>
+      </rPr>
       <t>不宜入场</t>
     </r>
     <r>
@@ -1206,6 +1463,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>光学光电</t>
     </r>
     <r>
@@ -1259,6 +1522,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="方正书宋_GBK"/>
+        <charset val="134"/>
+      </rPr>
       <t>不宜入场</t>
     </r>
     <r>
@@ -1306,6 +1574,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="方正书宋_GBK"/>
+        <charset val="134"/>
+      </rPr>
       <t>不宜入场</t>
     </r>
     <r>
@@ -1336,6 +1610,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="方正书宋_GBK"/>
+        <charset val="134"/>
+      </rPr>
       <t>不宜入场</t>
     </r>
     <r>
@@ -1366,6 +1646,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="方正书宋_GBK"/>
+        <charset val="134"/>
+      </rPr>
       <t>不宜入场</t>
     </r>
     <r>
@@ -1399,6 +1685,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="方正书宋_GBK"/>
+        <charset val="134"/>
+      </rPr>
       <t>不宜入场</t>
     </r>
     <r>
@@ -1465,6 +1757,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="方正书宋_GBK"/>
+        <charset val="134"/>
+      </rPr>
       <t>不宜入场</t>
     </r>
     <r>
@@ -1498,6 +1796,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="方正书宋_GBK"/>
+        <charset val="134"/>
+      </rPr>
       <t>不宜入场</t>
     </r>
     <r>
@@ -1528,6 +1832,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="方正书宋_GBK"/>
+        <charset val="134"/>
+      </rPr>
       <t>不宜入场</t>
     </r>
     <r>
@@ -1567,6 +1877,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="方正书宋_GBK"/>
+        <charset val="134"/>
+      </rPr>
       <t>不宜入场</t>
     </r>
     <r>
@@ -1600,6 +1916,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="方正书宋_GBK"/>
+        <charset val="134"/>
+      </rPr>
       <t>不宜入场</t>
     </r>
     <r>
@@ -1633,6 +1955,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="方正书宋_GBK"/>
+        <charset val="134"/>
+      </rPr>
       <t>不宜入场</t>
     </r>
     <r>
@@ -1666,6 +1994,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="方正书宋_GBK"/>
+        <charset val="134"/>
+      </rPr>
       <t>不宜入场</t>
     </r>
     <r>
@@ -1696,6 +2030,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="方正书宋_GBK"/>
+        <charset val="134"/>
+      </rPr>
       <t>是</t>
     </r>
     <r>
@@ -1719,6 +2059,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>不宜入场</t>
     </r>
     <r>
@@ -1749,6 +2095,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>煤炭开采</t>
     </r>
     <r>
@@ -1769,6 +2121,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>不宜入场</t>
     </r>
     <r>
@@ -1802,6 +2160,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>不宜入场</t>
     </r>
     <r>
@@ -1838,6 +2202,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>不宜入场</t>
     </r>
     <r>
@@ -1868,6 +2238,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>不宜入场</t>
     </r>
     <r>
@@ -1898,6 +2274,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>不宜入场</t>
     </r>
     <r>
@@ -1934,6 +2316,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>不宜入场</t>
     </r>
     <r>
@@ -1964,6 +2352,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>已分析</t>
     </r>
     <r>
@@ -1994,6 +2388,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>不宜入场</t>
     </r>
     <r>
@@ -2024,6 +2424,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>自动化设</t>
     </r>
     <r>
@@ -2038,6 +2444,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>不宜入场</t>
     </r>
     <r>
@@ -2086,6 +2498,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>不宜入场</t>
     </r>
     <r>
@@ -2116,6 +2534,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>不宜入场</t>
     </r>
     <r>
@@ -2146,6 +2570,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>不宜入场</t>
     </r>
     <r>
@@ -2182,6 +2612,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>食品加工</t>
     </r>
     <r>
@@ -2199,6 +2635,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>不宜入场</t>
     </r>
     <r>
@@ -2232,6 +2674,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>不宜入场</t>
     </r>
     <r>
@@ -2262,6 +2710,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>不宜入场</t>
     </r>
     <r>
@@ -2292,6 +2746,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>不宜入场</t>
     </r>
     <r>
@@ -2322,6 +2782,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>化工合成</t>
     </r>
     <r>
@@ -2336,6 +2802,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>已分析</t>
     </r>
     <r>
@@ -2375,6 +2847,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>不宜入场</t>
     </r>
     <r>
@@ -2405,6 +2883,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>不宜入场</t>
     </r>
     <r>
@@ -2444,6 +2928,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>不宜入场</t>
     </r>
     <r>
@@ -2477,6 +2967,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>不宜入场</t>
     </r>
     <r>
@@ -2516,6 +3012,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>不宜入场</t>
     </r>
     <r>
@@ -2558,6 +3060,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>不宜入场</t>
     </r>
     <r>
@@ -2594,6 +3102,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>不宜入场</t>
     </r>
     <r>
@@ -2624,6 +3138,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>不宜入场</t>
     </r>
     <r>
@@ -2657,6 +3177,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>不宜入场</t>
     </r>
     <r>
@@ -2705,6 +3231,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>公路铁路</t>
     </r>
     <r>
@@ -2719,6 +3251,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>不宜入场</t>
     </r>
     <r>
@@ -2752,6 +3290,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>可以入场</t>
     </r>
     <r>
@@ -2782,6 +3326,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>已分析</t>
     </r>
     <r>
@@ -2827,6 +3377,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>不宜入场</t>
     </r>
     <r>
@@ -2872,6 +3428,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>已分析</t>
     </r>
     <r>
@@ -2917,6 +3479,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>不宜入场</t>
     </r>
     <r>
@@ -2959,6 +3527,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>不宜入场</t>
     </r>
     <r>
@@ -2989,6 +3563,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>不宜入场</t>
     </r>
     <r>
@@ -3019,6 +3599,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>不宜入场</t>
     </r>
     <r>
@@ -3049,6 +3635,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>不宜入场</t>
     </r>
     <r>
@@ -3088,6 +3680,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>已分析</t>
     </r>
     <r>
@@ -3118,6 +3716,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>不宜入场</t>
     </r>
     <r>
@@ -3154,6 +3758,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>不宜入场</t>
     </r>
     <r>
@@ -3475,14 +4085,14 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="9">
     <numFmt numFmtId="176" formatCode="yyyy/mm/dd"/>
-    <numFmt numFmtId="177" formatCode="0.00_ ;[Red]\-0.00\ "/>
+    <numFmt numFmtId="177" formatCode="yyyy&quot;/&quot;mm&quot;/&quot;dd"/>
+    <numFmt numFmtId="178" formatCode="0.00_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="0.00_);\(0.00\)"/>
+    <numFmt numFmtId="180" formatCode="0.00_ ;[Red]\-0.00\ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="0.00_);\(0.00\)"/>
-    <numFmt numFmtId="179" formatCode="0.00_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="180" formatCode="yyyy&quot;/&quot;mm&quot;/&quot;dd"/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="47">
     <font>
@@ -3645,122 +4255,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3782,6 +4278,120 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="10"/>
       <name val="方正书宋_GBK"/>
@@ -3800,7 +4410,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="42">
+  <fills count="41">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3875,7 +4485,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3887,13 +4599,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3905,61 +4611,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3971,55 +4623,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4037,13 +4641,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4085,6 +4689,54 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -4113,7 +4765,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4132,205 +4784,157 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="27" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="37" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="21" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="37" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="42" fillId="13" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="280">
+  <cellXfs count="266">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4358,10 +4962,10 @@
     <xf numFmtId="10" fontId="1" fillId="0" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="1" fillId="2" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="1" fillId="2" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="1" fillId="3" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4373,108 +4977,108 @@
     <xf numFmtId="10" fontId="4" fillId="2" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="3" fillId="3" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="1" fillId="2" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="1" fillId="2" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="7" fillId="2" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="7" fillId="2" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="8" fillId="2" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="9" fillId="2" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="1" fillId="4" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="7" fillId="4" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="4" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="8" fillId="4" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="3" fillId="4" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="2" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="2" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="7" fillId="2" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="3" fillId="5" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="8" fillId="2" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="3" fillId="2" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="10" fillId="2" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="11" fillId="4" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="2" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="9" fillId="4" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="5" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="179" fontId="1" fillId="0" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="8" fillId="2" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="9" fillId="2" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="1" fillId="4" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="7" fillId="4" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="1" fillId="4" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="8" fillId="4" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="3" fillId="4" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="1" fillId="2" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="1" fillId="2" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="7" fillId="2" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="3" fillId="5" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="8" fillId="2" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="3" fillId="2" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="10" fillId="2" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="11" fillId="4" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="1" fillId="2" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="9" fillId="4" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="3" fillId="5" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="178" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -4628,181 +5232,181 @@
     <xf numFmtId="0" fontId="13" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="16" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="16" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="17" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="17" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="18" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="18" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="13" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="13" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="13" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="13" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="18" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="18" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="13" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="13" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="8" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="8" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="20" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="20" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="18" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="18" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="13" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="13" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="18" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="18" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="18" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="18" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="15" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="15" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="15" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="15" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="15" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="15" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="15" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="15" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="15" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="15" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="13" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="13" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="13" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="13" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="13" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="13" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="13" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="13" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="12" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="12" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="21" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="21" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="12" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="12" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="22" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="22" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="12" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="12" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="22" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="22" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="12" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="12" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="19" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="19" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="23" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="23" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="21" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="21" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="12" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="12" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="22" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="22" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="21" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="21" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="21" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="21" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="10" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="10" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="10" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="10" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="10" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="10" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="10" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="10" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="10" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="10" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="19" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="19" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="19" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="19" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="19" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="19" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="19" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="19" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="12" fillId="3" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4853,10 +5457,10 @@
     <xf numFmtId="0" fontId="19" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="19" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="179" fontId="19" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="19" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="179" fontId="19" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="12" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4910,13 +5514,13 @@
     <xf numFmtId="10" fontId="12" fillId="8" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="19" fillId="8" borderId="1" xfId="9" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="19" fillId="8" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="19" fillId="10" borderId="1" xfId="9" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="19" fillId="10" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="19" fillId="5" borderId="1" xfId="9" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="19" fillId="5" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4937,9 +5541,6 @@
     <xf numFmtId="10" fontId="12" fillId="5" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="3" fillId="4" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -4967,9 +5568,6 @@
     <xf numFmtId="176" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -4982,36 +5580,21 @@
     <xf numFmtId="176" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="176" fontId="4" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="8" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="176" fontId="4" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="8" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -5057,52 +5640,40 @@
     <xf numFmtId="176" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="13" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="13" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="13" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="13" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="2" fontId="5" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="13" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="13" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="13" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="13" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="19" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="19" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="19" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="19" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="19" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="19" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="20" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5126,22 +5697,22 @@
     <xf numFmtId="0" fontId="19" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="13" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="179" fontId="13" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="19" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="179" fontId="19" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="19" fillId="7" borderId="1" xfId="9" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="19" fillId="7" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="19" fillId="9" borderId="1" xfId="9" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="19" fillId="9" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="19" fillId="0" borderId="1" xfId="9" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="19" fillId="0" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="19" fillId="4" borderId="1" xfId="9" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="19" fillId="4" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="13" fillId="0" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -5150,25 +5721,16 @@
     <xf numFmtId="176" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="176" fontId="13" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="176" fontId="13" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
@@ -5573,13 +6135,13 @@
       </c>
       <c r="AM1" s="196"/>
       <c r="AN1" s="196"/>
-      <c r="AO1" s="210" t="s">
+      <c r="AO1" s="209" t="s">
         <v>9</v>
       </c>
-      <c r="AP1" s="211" t="s">
+      <c r="AP1" s="210" t="s">
         <v>10</v>
       </c>
-      <c r="AQ1" s="212" t="s">
+      <c r="AQ1" s="209" t="s">
         <v>11</v>
       </c>
     </row>
@@ -5658,9 +6220,9 @@
       <c r="AN2" s="176" t="s">
         <v>28</v>
       </c>
-      <c r="AO2" s="210"/>
-      <c r="AP2" s="211"/>
-      <c r="AQ2" s="212"/>
+      <c r="AO2" s="209"/>
+      <c r="AP2" s="210"/>
+      <c r="AQ2" s="209"/>
     </row>
     <row r="3" ht="58" spans="1:43">
       <c r="A3" s="56"/>
@@ -5741,9 +6303,9 @@
       <c r="AL3" s="176"/>
       <c r="AM3" s="176"/>
       <c r="AN3" s="176"/>
-      <c r="AO3" s="210"/>
-      <c r="AP3" s="211"/>
-      <c r="AQ3" s="212"/>
+      <c r="AO3" s="209"/>
+      <c r="AP3" s="210"/>
+      <c r="AQ3" s="209"/>
     </row>
     <row r="4" ht="87" spans="1:43">
       <c r="A4" s="58" t="s">
@@ -5859,13 +6421,13 @@
       <c r="AN4" s="177" t="s">
         <v>53</v>
       </c>
-      <c r="AO4" s="213" t="s">
+      <c r="AO4" s="211" t="s">
         <v>54</v>
       </c>
-      <c r="AP4" s="214">
+      <c r="AP4" s="212">
         <v>44571</v>
       </c>
-      <c r="AQ4" s="215"/>
+      <c r="AQ4" s="213"/>
     </row>
     <row r="5" ht="101" spans="1:43">
       <c r="A5" s="62" t="s">
@@ -5960,13 +6522,13 @@
       <c r="AL5" s="178"/>
       <c r="AM5" s="178"/>
       <c r="AN5" s="178"/>
-      <c r="AO5" s="203" t="s">
+      <c r="AO5" s="202" t="s">
         <v>59</v>
       </c>
-      <c r="AP5" s="216">
+      <c r="AP5" s="214">
         <v>44571</v>
       </c>
-      <c r="AQ5" s="217"/>
+      <c r="AQ5" s="208"/>
     </row>
     <row r="6" ht="116" spans="1:43">
       <c r="A6" s="66" t="s">
@@ -6025,13 +6587,13 @@
       <c r="AL6" s="179"/>
       <c r="AM6" s="179"/>
       <c r="AN6" s="179"/>
-      <c r="AO6" s="218" t="s">
+      <c r="AO6" s="215" t="s">
         <v>63</v>
       </c>
-      <c r="AP6" s="219">
+      <c r="AP6" s="216">
         <v>44571</v>
       </c>
-      <c r="AQ6" s="220"/>
+      <c r="AQ6" s="199"/>
     </row>
     <row r="7" ht="116" spans="1:43">
       <c r="A7" s="70" t="s">
@@ -6090,13 +6652,13 @@
       <c r="AL7" s="179"/>
       <c r="AM7" s="179"/>
       <c r="AN7" s="179"/>
-      <c r="AO7" s="218" t="s">
+      <c r="AO7" s="215" t="s">
         <v>66</v>
       </c>
-      <c r="AP7" s="219">
+      <c r="AP7" s="216">
         <v>44571</v>
       </c>
-      <c r="AQ7" s="220"/>
+      <c r="AQ7" s="199"/>
     </row>
     <row r="8" ht="116" spans="1:43">
       <c r="A8" s="70" t="s">
@@ -6155,13 +6717,13 @@
       <c r="AL8" s="199"/>
       <c r="AM8" s="199"/>
       <c r="AN8" s="199"/>
-      <c r="AO8" s="218" t="s">
+      <c r="AO8" s="215" t="s">
         <v>66</v>
       </c>
-      <c r="AP8" s="221">
+      <c r="AP8" s="217">
         <v>44571</v>
       </c>
-      <c r="AQ8" s="220"/>
+      <c r="AQ8" s="199"/>
     </row>
     <row r="9" ht="116" spans="1:43">
       <c r="A9" s="70" t="s">
@@ -6220,13 +6782,13 @@
       <c r="AL9" s="179"/>
       <c r="AM9" s="179"/>
       <c r="AN9" s="179"/>
-      <c r="AO9" s="218" t="s">
+      <c r="AO9" s="215" t="s">
         <v>66</v>
       </c>
-      <c r="AP9" s="219">
+      <c r="AP9" s="216">
         <v>44571</v>
       </c>
-      <c r="AQ9" s="220"/>
+      <c r="AQ9" s="199"/>
     </row>
     <row r="10" ht="116" spans="1:43">
       <c r="A10" s="70" t="s">
@@ -6285,13 +6847,13 @@
       <c r="AL10" s="199"/>
       <c r="AM10" s="199"/>
       <c r="AN10" s="199"/>
-      <c r="AO10" s="218" t="s">
+      <c r="AO10" s="215" t="s">
         <v>75</v>
       </c>
-      <c r="AP10" s="221">
+      <c r="AP10" s="217">
         <v>44571</v>
       </c>
-      <c r="AQ10" s="220"/>
+      <c r="AQ10" s="199"/>
     </row>
     <row r="11" ht="116" spans="1:43">
       <c r="A11" s="70" t="s">
@@ -6350,13 +6912,13 @@
       <c r="AL11" s="179"/>
       <c r="AM11" s="179"/>
       <c r="AN11" s="179"/>
-      <c r="AO11" s="218" t="s">
+      <c r="AO11" s="215" t="s">
         <v>79</v>
       </c>
-      <c r="AP11" s="219">
+      <c r="AP11" s="216">
         <v>44571</v>
       </c>
-      <c r="AQ11" s="220"/>
+      <c r="AQ11" s="199"/>
     </row>
     <row r="12" ht="116" spans="1:43">
       <c r="A12" s="70" t="s">
@@ -6415,13 +6977,13 @@
       <c r="AL12" s="179"/>
       <c r="AM12" s="179"/>
       <c r="AN12" s="179"/>
-      <c r="AO12" s="218" t="s">
+      <c r="AO12" s="215" t="s">
         <v>82</v>
       </c>
-      <c r="AP12" s="221">
+      <c r="AP12" s="217">
         <v>44571</v>
       </c>
-      <c r="AQ12" s="220"/>
+      <c r="AQ12" s="199"/>
     </row>
     <row r="13" ht="116" spans="1:43">
       <c r="A13" s="70" t="s">
@@ -6480,13 +7042,13 @@
       <c r="AL13" s="179"/>
       <c r="AM13" s="179"/>
       <c r="AN13" s="179"/>
-      <c r="AO13" s="218" t="s">
+      <c r="AO13" s="215" t="s">
         <v>66</v>
       </c>
-      <c r="AP13" s="219">
+      <c r="AP13" s="216">
         <v>44571</v>
       </c>
-      <c r="AQ13" s="220"/>
+      <c r="AQ13" s="199"/>
     </row>
     <row r="14" ht="116" spans="1:43">
       <c r="A14" s="70" t="s">
@@ -6545,13 +7107,13 @@
       <c r="AL14" s="179"/>
       <c r="AM14" s="179"/>
       <c r="AN14" s="179"/>
-      <c r="AO14" s="218" t="s">
+      <c r="AO14" s="215" t="s">
         <v>75</v>
       </c>
-      <c r="AP14" s="221">
+      <c r="AP14" s="217">
         <v>44571</v>
       </c>
-      <c r="AQ14" s="220"/>
+      <c r="AQ14" s="199"/>
     </row>
     <row r="15" ht="116" spans="1:43">
       <c r="A15" s="70" t="s">
@@ -6610,13 +7172,13 @@
       <c r="AL15" s="179"/>
       <c r="AM15" s="179"/>
       <c r="AN15" s="179"/>
-      <c r="AO15" s="218" t="s">
+      <c r="AO15" s="215" t="s">
         <v>82</v>
       </c>
-      <c r="AP15" s="219">
+      <c r="AP15" s="216">
         <v>44571</v>
       </c>
-      <c r="AQ15" s="220"/>
+      <c r="AQ15" s="199"/>
     </row>
     <row r="16" ht="116" spans="1:43">
       <c r="A16" s="70" t="s">
@@ -6675,13 +7237,13 @@
       <c r="AL16" s="179"/>
       <c r="AM16" s="179"/>
       <c r="AN16" s="179"/>
-      <c r="AO16" s="218" t="s">
+      <c r="AO16" s="215" t="s">
         <v>66</v>
       </c>
-      <c r="AP16" s="221">
+      <c r="AP16" s="217">
         <v>44571</v>
       </c>
-      <c r="AQ16" s="220"/>
+      <c r="AQ16" s="199"/>
     </row>
     <row r="17" ht="72" spans="1:43">
       <c r="A17" s="75" t="s">
@@ -6736,17 +7298,17 @@
       <c r="AH17" s="181"/>
       <c r="AI17" s="181"/>
       <c r="AJ17" s="200"/>
-      <c r="AK17" s="208"/>
-      <c r="AL17" s="208"/>
+      <c r="AK17" s="207"/>
+      <c r="AL17" s="207"/>
       <c r="AM17" s="200"/>
-      <c r="AN17" s="208"/>
+      <c r="AN17" s="207"/>
       <c r="AO17" s="200" t="s">
         <v>97</v>
       </c>
-      <c r="AP17" s="219">
+      <c r="AP17" s="216">
         <v>44571</v>
       </c>
-      <c r="AQ17" s="222"/>
+      <c r="AQ17" s="203"/>
     </row>
     <row r="18" ht="101" spans="1:43">
       <c r="A18" s="62" t="s">
@@ -6837,13 +7399,13 @@
       <c r="AL18" s="178"/>
       <c r="AM18" s="178"/>
       <c r="AN18" s="178"/>
-      <c r="AO18" s="203" t="s">
+      <c r="AO18" s="202" t="s">
         <v>101</v>
       </c>
-      <c r="AP18" s="216">
+      <c r="AP18" s="214">
         <v>44578</v>
       </c>
-      <c r="AQ18" s="217"/>
+      <c r="AQ18" s="208"/>
     </row>
     <row r="19" ht="116" spans="1:43">
       <c r="A19" s="70" t="s">
@@ -6902,13 +7464,13 @@
       <c r="AL19" s="179"/>
       <c r="AM19" s="179"/>
       <c r="AN19" s="179"/>
-      <c r="AO19" s="218" t="s">
+      <c r="AO19" s="215" t="s">
         <v>75</v>
       </c>
-      <c r="AP19" s="219">
+      <c r="AP19" s="216">
         <v>44571</v>
       </c>
-      <c r="AQ19" s="220"/>
+      <c r="AQ19" s="199"/>
     </row>
     <row r="20" ht="116" spans="1:43">
       <c r="A20" s="70" t="s">
@@ -6967,13 +7529,13 @@
       <c r="AL20" s="179"/>
       <c r="AM20" s="179"/>
       <c r="AN20" s="179"/>
-      <c r="AO20" s="218" t="s">
+      <c r="AO20" s="215" t="s">
         <v>82</v>
       </c>
-      <c r="AP20" s="219">
+      <c r="AP20" s="216">
         <v>44571</v>
       </c>
-      <c r="AQ20" s="220"/>
+      <c r="AQ20" s="199"/>
     </row>
     <row r="21" ht="116" spans="1:43">
       <c r="A21" s="66" t="s">
@@ -7032,13 +7594,13 @@
       <c r="AL21" s="179"/>
       <c r="AM21" s="179"/>
       <c r="AN21" s="179"/>
-      <c r="AO21" s="218" t="s">
+      <c r="AO21" s="215" t="s">
         <v>66</v>
       </c>
-      <c r="AP21" s="219">
+      <c r="AP21" s="216">
         <v>44571</v>
       </c>
-      <c r="AQ21" s="220"/>
+      <c r="AQ21" s="199"/>
     </row>
     <row r="22" ht="101" spans="1:43">
       <c r="A22" s="62" t="s">
@@ -7135,13 +7697,13 @@
       <c r="AL22" s="178"/>
       <c r="AM22" s="178"/>
       <c r="AN22" s="178"/>
-      <c r="AO22" s="203" t="s">
+      <c r="AO22" s="202" t="s">
         <v>113</v>
       </c>
-      <c r="AP22" s="216">
+      <c r="AP22" s="214">
         <v>44578</v>
       </c>
-      <c r="AQ22" s="217"/>
+      <c r="AQ22" s="208"/>
     </row>
     <row r="23" ht="116" spans="1:43">
       <c r="A23" s="70" t="s">
@@ -7200,13 +7762,13 @@
       <c r="AL23" s="179"/>
       <c r="AM23" s="179"/>
       <c r="AN23" s="179"/>
-      <c r="AO23" s="218" t="s">
+      <c r="AO23" s="215" t="s">
         <v>82</v>
       </c>
-      <c r="AP23" s="219">
+      <c r="AP23" s="216">
         <v>44571</v>
       </c>
-      <c r="AQ23" s="220"/>
+      <c r="AQ23" s="199"/>
     </row>
     <row r="24" ht="130" spans="1:43">
       <c r="A24" s="70" t="s">
@@ -7265,13 +7827,13 @@
       <c r="AL24" s="179"/>
       <c r="AM24" s="179"/>
       <c r="AN24" s="179"/>
-      <c r="AO24" s="218" t="s">
+      <c r="AO24" s="215" t="s">
         <v>118</v>
       </c>
-      <c r="AP24" s="219">
+      <c r="AP24" s="216">
         <v>44571</v>
       </c>
-      <c r="AQ24" s="220"/>
+      <c r="AQ24" s="199"/>
     </row>
     <row r="25" ht="101" spans="1:43">
       <c r="A25" s="62" t="s">
@@ -7364,13 +7926,13 @@
       <c r="AL25" s="178"/>
       <c r="AM25" s="178"/>
       <c r="AN25" s="178"/>
-      <c r="AO25" s="203" t="s">
+      <c r="AO25" s="202" t="s">
         <v>122</v>
       </c>
-      <c r="AP25" s="216">
+      <c r="AP25" s="214">
         <v>44571</v>
       </c>
-      <c r="AQ25" s="217"/>
+      <c r="AQ25" s="208"/>
     </row>
     <row r="26" ht="116" spans="1:43">
       <c r="A26" s="70" t="s">
@@ -7429,13 +7991,13 @@
       <c r="AL26" s="179"/>
       <c r="AM26" s="179"/>
       <c r="AN26" s="179"/>
-      <c r="AO26" s="218" t="s">
+      <c r="AO26" s="215" t="s">
         <v>125</v>
       </c>
-      <c r="AP26" s="219">
+      <c r="AP26" s="216">
         <v>44571</v>
       </c>
-      <c r="AQ26" s="220"/>
+      <c r="AQ26" s="199"/>
     </row>
     <row r="27" ht="116" spans="1:43">
       <c r="A27" s="70" t="s">
@@ -7494,13 +8056,13 @@
       <c r="AL27" s="179"/>
       <c r="AM27" s="179"/>
       <c r="AN27" s="179"/>
-      <c r="AO27" s="218" t="s">
+      <c r="AO27" s="215" t="s">
         <v>125</v>
       </c>
-      <c r="AP27" s="219">
+      <c r="AP27" s="216">
         <v>44571</v>
       </c>
-      <c r="AQ27" s="220"/>
+      <c r="AQ27" s="199"/>
     </row>
     <row r="28" ht="101" spans="1:43">
       <c r="A28" s="62" t="s">
@@ -7604,13 +8166,13 @@
       <c r="AL28" s="178"/>
       <c r="AM28" s="178"/>
       <c r="AN28" s="178"/>
-      <c r="AO28" s="203" t="s">
+      <c r="AO28" s="202" t="s">
         <v>113</v>
       </c>
-      <c r="AP28" s="216">
+      <c r="AP28" s="214">
         <v>44578</v>
       </c>
-      <c r="AQ28" s="217"/>
+      <c r="AQ28" s="208"/>
     </row>
     <row r="29" ht="101" spans="1:43">
       <c r="A29" s="78" t="s">
@@ -7711,13 +8273,13 @@
       <c r="AL29" s="182"/>
       <c r="AM29" s="182"/>
       <c r="AN29" s="182"/>
-      <c r="AO29" s="223" t="s">
+      <c r="AO29" s="52" t="s">
         <v>135</v>
       </c>
-      <c r="AP29" s="224">
+      <c r="AP29" s="218">
         <v>44578</v>
       </c>
-      <c r="AQ29" s="225"/>
+      <c r="AQ29" s="219"/>
     </row>
     <row r="30" ht="101" spans="1:43">
       <c r="A30" s="62" t="s">
@@ -7822,13 +8384,13 @@
       <c r="AL30" s="178"/>
       <c r="AM30" s="178"/>
       <c r="AN30" s="178"/>
-      <c r="AO30" s="203" t="s">
+      <c r="AO30" s="202" t="s">
         <v>113</v>
       </c>
-      <c r="AP30" s="216">
+      <c r="AP30" s="214">
         <v>44578</v>
       </c>
-      <c r="AQ30" s="217"/>
+      <c r="AQ30" s="208"/>
     </row>
     <row r="31" ht="130" spans="1:43">
       <c r="A31" s="70" t="s">
@@ -7887,15 +8449,15 @@
       <c r="AL31" s="179"/>
       <c r="AM31" s="179"/>
       <c r="AN31" s="179"/>
-      <c r="AO31" s="218" t="s">
+      <c r="AO31" s="215" t="s">
         <v>140</v>
       </c>
-      <c r="AP31" s="219">
+      <c r="AP31" s="216">
         <v>44571</v>
       </c>
-      <c r="AQ31" s="220"/>
+      <c r="AQ31" s="199"/>
     </row>
-    <row r="32" ht="36" spans="1:43">
+    <row r="32" ht="29" spans="1:43">
       <c r="A32" s="78" t="s">
         <v>141</v>
       </c>
@@ -8019,13 +8581,13 @@
         <v>53</v>
       </c>
       <c r="AN32" s="182"/>
-      <c r="AO32" s="223" t="s">
+      <c r="AO32" s="52" t="s">
         <v>144</v>
       </c>
-      <c r="AP32" s="224">
+      <c r="AP32" s="218">
         <v>44578</v>
       </c>
-      <c r="AQ32" s="225"/>
+      <c r="AQ32" s="219"/>
     </row>
     <row r="33" ht="116" spans="1:43">
       <c r="A33" s="70" t="s">
@@ -8099,13 +8661,13 @@
       <c r="AL33" s="179"/>
       <c r="AM33" s="179"/>
       <c r="AN33" s="179"/>
-      <c r="AO33" s="218" t="s">
+      <c r="AO33" s="215" t="s">
         <v>82</v>
       </c>
-      <c r="AP33" s="219">
+      <c r="AP33" s="216">
         <v>44571</v>
       </c>
-      <c r="AQ33" s="220"/>
+      <c r="AQ33" s="199"/>
     </row>
     <row r="34" ht="130" spans="1:43">
       <c r="A34" s="70" t="s">
@@ -8164,13 +8726,13 @@
       <c r="AL34" s="179"/>
       <c r="AM34" s="179"/>
       <c r="AN34" s="179"/>
-      <c r="AO34" s="218" t="s">
+      <c r="AO34" s="215" t="s">
         <v>140</v>
       </c>
-      <c r="AP34" s="219">
+      <c r="AP34" s="216">
         <v>44571</v>
       </c>
-      <c r="AQ34" s="220"/>
+      <c r="AQ34" s="199"/>
     </row>
     <row r="35" ht="44" spans="1:43">
       <c r="A35" s="62" t="s">
@@ -8264,13 +8826,13 @@
       <c r="AL35" s="178"/>
       <c r="AM35" s="178"/>
       <c r="AN35" s="178"/>
-      <c r="AO35" s="203" t="s">
+      <c r="AO35" s="202" t="s">
         <v>154</v>
       </c>
-      <c r="AP35" s="216">
+      <c r="AP35" s="214">
         <v>44557</v>
       </c>
-      <c r="AQ35" s="217"/>
+      <c r="AQ35" s="208"/>
     </row>
     <row r="36" ht="130" spans="1:43">
       <c r="A36" s="70" t="s">
@@ -8344,13 +8906,13 @@
       <c r="AL36" s="179"/>
       <c r="AM36" s="179"/>
       <c r="AN36" s="179"/>
-      <c r="AO36" s="218" t="s">
+      <c r="AO36" s="215" t="s">
         <v>140</v>
       </c>
-      <c r="AP36" s="219">
+      <c r="AP36" s="216">
         <v>44571</v>
       </c>
-      <c r="AQ36" s="220"/>
+      <c r="AQ36" s="199"/>
     </row>
     <row r="37" ht="116" spans="1:43">
       <c r="A37" s="70" t="s">
@@ -8409,15 +8971,15 @@
       <c r="AL37" s="179"/>
       <c r="AM37" s="179"/>
       <c r="AN37" s="179"/>
-      <c r="AO37" s="218" t="s">
+      <c r="AO37" s="215" t="s">
         <v>82</v>
       </c>
-      <c r="AP37" s="219">
+      <c r="AP37" s="216">
         <v>44571</v>
       </c>
-      <c r="AQ37" s="220"/>
+      <c r="AQ37" s="199"/>
     </row>
-    <row r="38" ht="29" spans="1:43">
+    <row r="38" spans="1:43">
       <c r="A38" s="58" t="s">
         <v>159</v>
       </c>
@@ -8528,13 +9090,13 @@
       <c r="AN38" s="177" t="s">
         <v>164</v>
       </c>
-      <c r="AO38" s="226" t="s">
+      <c r="AO38" s="213" t="s">
         <v>144</v>
       </c>
-      <c r="AP38" s="214">
+      <c r="AP38" s="212">
         <v>44553</v>
       </c>
-      <c r="AQ38" s="215"/>
+      <c r="AQ38" s="213"/>
     </row>
     <row r="39" ht="59" spans="1:43">
       <c r="A39" s="62" t="s">
@@ -8616,21 +9178,21 @@
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AG39" s="202"/>
-      <c r="AH39" s="202"/>
+      <c r="AG39" s="27"/>
+      <c r="AH39" s="27"/>
       <c r="AI39" s="183"/>
-      <c r="AJ39" s="203"/>
-      <c r="AK39" s="209"/>
-      <c r="AL39" s="209"/>
-      <c r="AM39" s="209"/>
-      <c r="AN39" s="209"/>
-      <c r="AO39" s="203" t="s">
+      <c r="AJ39" s="202"/>
+      <c r="AK39" s="208"/>
+      <c r="AL39" s="208"/>
+      <c r="AM39" s="208"/>
+      <c r="AN39" s="208"/>
+      <c r="AO39" s="202" t="s">
         <v>167</v>
       </c>
-      <c r="AP39" s="227">
+      <c r="AP39" s="220">
         <v>44570</v>
       </c>
-      <c r="AQ39" s="228"/>
+      <c r="AQ39" s="221"/>
     </row>
     <row r="40" ht="89" spans="1:43">
       <c r="A40" s="70" t="s">
@@ -8684,18 +9246,18 @@
       <c r="AG40" s="161"/>
       <c r="AH40" s="161"/>
       <c r="AI40" s="184"/>
-      <c r="AJ40" s="204"/>
-      <c r="AK40" s="204"/>
-      <c r="AL40" s="204"/>
-      <c r="AM40" s="204"/>
-      <c r="AN40" s="204"/>
+      <c r="AJ40" s="203"/>
+      <c r="AK40" s="203"/>
+      <c r="AL40" s="203"/>
+      <c r="AM40" s="203"/>
+      <c r="AN40" s="203"/>
       <c r="AO40" s="76" t="s">
         <v>171</v>
       </c>
-      <c r="AP40" s="229">
+      <c r="AP40" s="222">
         <v>44571</v>
       </c>
-      <c r="AQ40" s="220"/>
+      <c r="AQ40" s="199"/>
     </row>
     <row r="41" ht="116" spans="1:43">
       <c r="A41" s="70" t="s">
@@ -8757,10 +9319,10 @@
       <c r="AO41" s="76" t="s">
         <v>174</v>
       </c>
-      <c r="AP41" s="229">
+      <c r="AP41" s="222">
         <v>44571</v>
       </c>
-      <c r="AQ41" s="220"/>
+      <c r="AQ41" s="199"/>
     </row>
     <row r="42" ht="130" spans="1:43">
       <c r="A42" s="70" t="s">
@@ -8822,10 +9384,10 @@
       <c r="AO42" s="76" t="s">
         <v>177</v>
       </c>
-      <c r="AP42" s="229">
+      <c r="AP42" s="222">
         <v>44571</v>
       </c>
-      <c r="AQ42" s="220"/>
+      <c r="AQ42" s="199"/>
     </row>
     <row r="43" ht="78" spans="1:43">
       <c r="A43" s="70" t="s">
@@ -8902,10 +9464,10 @@
       <c r="AO43" s="76" t="s">
         <v>181</v>
       </c>
-      <c r="AP43" s="229">
+      <c r="AP43" s="222">
         <v>44571</v>
       </c>
-      <c r="AQ43" s="220"/>
+      <c r="AQ43" s="199"/>
     </row>
     <row r="44" ht="130" spans="1:43">
       <c r="A44" s="70" t="s">
@@ -8967,10 +9529,10 @@
       <c r="AO44" s="76" t="s">
         <v>177</v>
       </c>
-      <c r="AP44" s="229">
+      <c r="AP44" s="222">
         <v>44571</v>
       </c>
-      <c r="AQ44" s="220"/>
+      <c r="AQ44" s="199"/>
     </row>
     <row r="45" ht="29" spans="1:43">
       <c r="A45" s="58" t="s">
@@ -9072,28 +9634,28 @@
       <c r="AI45" s="185" t="s">
         <v>52</v>
       </c>
-      <c r="AJ45" s="205" t="s">
+      <c r="AJ45" s="204" t="s">
         <v>53</v>
       </c>
-      <c r="AK45" s="205" t="s">
+      <c r="AK45" s="204" t="s">
         <v>53</v>
       </c>
-      <c r="AL45" s="205" t="s">
+      <c r="AL45" s="204" t="s">
         <v>53</v>
       </c>
-      <c r="AM45" s="205" t="s">
+      <c r="AM45" s="204" t="s">
         <v>53</v>
       </c>
-      <c r="AN45" s="205" t="s">
+      <c r="AN45" s="204" t="s">
         <v>53</v>
       </c>
-      <c r="AO45" s="230" t="s">
+      <c r="AO45" s="223" t="s">
         <v>144</v>
       </c>
-      <c r="AP45" s="231">
+      <c r="AP45" s="224">
         <v>44547</v>
       </c>
-      <c r="AQ45" s="215"/>
+      <c r="AQ45" s="213"/>
     </row>
     <row r="46" ht="130" spans="1:43">
       <c r="A46" s="70" t="s">
@@ -9155,10 +9717,10 @@
       <c r="AO46" s="76" t="s">
         <v>177</v>
       </c>
-      <c r="AP46" s="229">
+      <c r="AP46" s="222">
         <v>44571</v>
       </c>
-      <c r="AQ46" s="220"/>
+      <c r="AQ46" s="199"/>
     </row>
     <row r="47" ht="116" spans="1:43">
       <c r="A47" s="70" t="s">
@@ -9212,18 +9774,18 @@
       <c r="AG47" s="161"/>
       <c r="AH47" s="161"/>
       <c r="AI47" s="184"/>
-      <c r="AJ47" s="204"/>
-      <c r="AK47" s="204"/>
+      <c r="AJ47" s="203"/>
+      <c r="AK47" s="203"/>
       <c r="AL47" s="184"/>
       <c r="AM47" s="184"/>
-      <c r="AN47" s="204"/>
+      <c r="AN47" s="203"/>
       <c r="AO47" s="76" t="s">
         <v>174</v>
       </c>
-      <c r="AP47" s="229">
+      <c r="AP47" s="222">
         <v>44571</v>
       </c>
-      <c r="AQ47" s="220"/>
+      <c r="AQ47" s="199"/>
     </row>
     <row r="48" ht="116" spans="1:43">
       <c r="A48" s="70" t="s">
@@ -9285,10 +9847,10 @@
       <c r="AO48" s="76" t="s">
         <v>174</v>
       </c>
-      <c r="AP48" s="229">
+      <c r="AP48" s="222">
         <v>44571</v>
       </c>
-      <c r="AQ48" s="220"/>
+      <c r="AQ48" s="199"/>
     </row>
     <row r="49" ht="78" spans="1:43">
       <c r="A49" s="85" t="s">
@@ -9381,13 +9943,13 @@
       <c r="AL49" s="186"/>
       <c r="AM49" s="186"/>
       <c r="AN49" s="186"/>
-      <c r="AO49" s="232" t="s">
+      <c r="AO49" s="225" t="s">
         <v>196</v>
       </c>
-      <c r="AP49" s="233">
+      <c r="AP49" s="226">
         <v>44571</v>
       </c>
-      <c r="AQ49" s="234"/>
+      <c r="AQ49" s="227"/>
     </row>
     <row r="50" ht="87" spans="1:43">
       <c r="A50" s="70" t="s">
@@ -9441,18 +10003,18 @@
       <c r="AG50" s="161"/>
       <c r="AH50" s="161"/>
       <c r="AI50" s="184"/>
-      <c r="AJ50" s="204"/>
-      <c r="AK50" s="204"/>
-      <c r="AL50" s="204"/>
-      <c r="AM50" s="204"/>
-      <c r="AN50" s="204"/>
+      <c r="AJ50" s="203"/>
+      <c r="AK50" s="203"/>
+      <c r="AL50" s="203"/>
+      <c r="AM50" s="203"/>
+      <c r="AN50" s="203"/>
       <c r="AO50" s="76" t="s">
         <v>200</v>
       </c>
-      <c r="AP50" s="229">
+      <c r="AP50" s="222">
         <v>44571</v>
       </c>
-      <c r="AQ50" s="220"/>
+      <c r="AQ50" s="199"/>
     </row>
     <row r="51" ht="116" spans="1:43">
       <c r="A51" s="89" t="s">
@@ -9542,13 +10104,13 @@
       <c r="AL51" s="187"/>
       <c r="AM51" s="187"/>
       <c r="AN51" s="187"/>
-      <c r="AO51" s="235" t="s">
+      <c r="AO51" s="228" t="s">
         <v>203</v>
       </c>
-      <c r="AP51" s="236">
+      <c r="AP51" s="229">
         <v>44571</v>
       </c>
-      <c r="AQ51" s="237"/>
+      <c r="AQ51" s="230"/>
     </row>
     <row r="52" ht="87" spans="1:43">
       <c r="A52" s="70" t="s">
@@ -9602,18 +10164,18 @@
       <c r="AG52" s="161"/>
       <c r="AH52" s="161"/>
       <c r="AI52" s="184"/>
-      <c r="AJ52" s="204"/>
-      <c r="AK52" s="204"/>
-      <c r="AL52" s="204"/>
-      <c r="AM52" s="204"/>
-      <c r="AN52" s="204"/>
+      <c r="AJ52" s="203"/>
+      <c r="AK52" s="203"/>
+      <c r="AL52" s="203"/>
+      <c r="AM52" s="203"/>
+      <c r="AN52" s="203"/>
       <c r="AO52" s="76" t="s">
         <v>200</v>
       </c>
-      <c r="AP52" s="219">
+      <c r="AP52" s="216">
         <v>44571</v>
       </c>
-      <c r="AQ52" s="220"/>
+      <c r="AQ52" s="199"/>
     </row>
     <row r="53" ht="116" spans="1:43">
       <c r="A53" s="62" t="s">
@@ -9703,18 +10265,18 @@
       <c r="AG53" s="160"/>
       <c r="AH53" s="160"/>
       <c r="AI53" s="188"/>
-      <c r="AJ53" s="206"/>
-      <c r="AK53" s="206"/>
-      <c r="AL53" s="206"/>
-      <c r="AM53" s="206"/>
-      <c r="AN53" s="206"/>
-      <c r="AO53" s="238" t="s">
+      <c r="AJ53" s="205"/>
+      <c r="AK53" s="205"/>
+      <c r="AL53" s="205"/>
+      <c r="AM53" s="205"/>
+      <c r="AN53" s="205"/>
+      <c r="AO53" s="231" t="s">
         <v>209</v>
       </c>
-      <c r="AP53" s="239">
+      <c r="AP53" s="232">
         <v>44578</v>
       </c>
-      <c r="AQ53" s="217"/>
+      <c r="AQ53" s="208"/>
     </row>
     <row r="54" ht="87" spans="1:43">
       <c r="A54" s="66" t="s">
@@ -9779,21 +10341,21 @@
         <f t="shared" si="23"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AG54" s="207"/>
-      <c r="AH54" s="207"/>
+      <c r="AG54" s="206"/>
+      <c r="AH54" s="206"/>
       <c r="AI54" s="189"/>
       <c r="AJ54" s="189"/>
       <c r="AK54" s="189"/>
       <c r="AL54" s="189"/>
       <c r="AM54" s="189"/>
       <c r="AN54" s="189"/>
-      <c r="AO54" s="240" t="s">
+      <c r="AO54" s="233" t="s">
         <v>213</v>
       </c>
-      <c r="AP54" s="241">
+      <c r="AP54" s="234">
         <v>44547</v>
       </c>
-      <c r="AQ54" s="220"/>
+      <c r="AQ54" s="199"/>
     </row>
     <row r="55" ht="116" spans="1:43">
       <c r="A55" s="70" t="s">
@@ -9862,18 +10424,18 @@
       <c r="AG55" s="161"/>
       <c r="AH55" s="161"/>
       <c r="AI55" s="184"/>
-      <c r="AJ55" s="204"/>
-      <c r="AK55" s="204"/>
-      <c r="AL55" s="204"/>
+      <c r="AJ55" s="203"/>
+      <c r="AK55" s="203"/>
+      <c r="AL55" s="203"/>
       <c r="AM55" s="76"/>
-      <c r="AN55" s="204"/>
+      <c r="AN55" s="203"/>
       <c r="AO55" s="76" t="s">
         <v>217</v>
       </c>
-      <c r="AP55" s="229">
+      <c r="AP55" s="222">
         <v>44570</v>
       </c>
-      <c r="AQ55" s="220"/>
+      <c r="AQ55" s="199"/>
     </row>
     <row r="56" ht="87" spans="1:43">
       <c r="A56" s="70" t="s">
@@ -9944,18 +10506,18 @@
       <c r="AG56" s="161"/>
       <c r="AH56" s="161"/>
       <c r="AI56" s="184"/>
-      <c r="AJ56" s="204"/>
-      <c r="AK56" s="204"/>
-      <c r="AL56" s="204"/>
-      <c r="AM56" s="204"/>
-      <c r="AN56" s="204"/>
+      <c r="AJ56" s="203"/>
+      <c r="AK56" s="203"/>
+      <c r="AL56" s="203"/>
+      <c r="AM56" s="203"/>
+      <c r="AN56" s="203"/>
       <c r="AO56" s="76" t="s">
         <v>221</v>
       </c>
-      <c r="AP56" s="229">
+      <c r="AP56" s="222">
         <v>44570</v>
       </c>
-      <c r="AQ56" s="220"/>
+      <c r="AQ56" s="199"/>
     </row>
     <row r="57" ht="116" spans="1:43">
       <c r="A57" s="70" t="s">
@@ -10047,28 +10609,28 @@
       <c r="AI57" s="184" t="s">
         <v>163</v>
       </c>
-      <c r="AJ57" s="204" t="s">
+      <c r="AJ57" s="203" t="s">
         <v>53</v>
       </c>
-      <c r="AK57" s="204" t="s">
+      <c r="AK57" s="203" t="s">
         <v>224</v>
       </c>
-      <c r="AL57" s="204" t="s">
+      <c r="AL57" s="203" t="s">
         <v>53</v>
       </c>
-      <c r="AM57" s="204" t="s">
+      <c r="AM57" s="203" t="s">
         <v>53</v>
       </c>
-      <c r="AN57" s="204" t="s">
+      <c r="AN57" s="203" t="s">
         <v>53</v>
       </c>
       <c r="AO57" s="76" t="s">
         <v>217</v>
       </c>
-      <c r="AP57" s="229">
+      <c r="AP57" s="222">
         <v>44557</v>
       </c>
-      <c r="AQ57" s="220"/>
+      <c r="AQ57" s="199"/>
     </row>
     <row r="58" ht="108" spans="1:43">
       <c r="A58" s="70" t="s">
@@ -10145,10 +10707,10 @@
       <c r="AO58" s="74" t="s">
         <v>228</v>
       </c>
-      <c r="AP58" s="229">
+      <c r="AP58" s="222">
         <v>44570</v>
       </c>
-      <c r="AQ58" s="242"/>
+      <c r="AQ58" s="108"/>
     </row>
     <row r="59" ht="93" spans="1:43">
       <c r="A59" s="89" t="s">
@@ -10234,10 +10796,10 @@
       <c r="AO59" s="92" t="s">
         <v>234</v>
       </c>
-      <c r="AP59" s="243">
+      <c r="AP59" s="235">
         <v>44548</v>
       </c>
-      <c r="AQ59" s="244"/>
+      <c r="AQ59" s="129"/>
     </row>
     <row r="60" ht="124" spans="1:43">
       <c r="A60" s="78" t="s">
@@ -10345,10 +10907,10 @@
       <c r="AO60" s="82" t="s">
         <v>238</v>
       </c>
-      <c r="AP60" s="245">
+      <c r="AP60" s="236">
         <v>44572</v>
       </c>
-      <c r="AQ60" s="246"/>
+      <c r="AQ60" s="113"/>
     </row>
     <row r="61" ht="108" spans="1:43">
       <c r="A61" s="70" t="s">
@@ -10446,10 +11008,10 @@
       <c r="AO61" s="74" t="s">
         <v>243</v>
       </c>
-      <c r="AP61" s="247">
+      <c r="AP61" s="237">
         <v>44548</v>
       </c>
-      <c r="AQ61" s="242"/>
+      <c r="AQ61" s="108"/>
     </row>
     <row r="62" ht="108" spans="1:43">
       <c r="A62" s="89" t="s">
@@ -10547,10 +11109,10 @@
       <c r="AO62" s="92" t="s">
         <v>246</v>
       </c>
-      <c r="AP62" s="243">
+      <c r="AP62" s="235">
         <v>44548</v>
       </c>
-      <c r="AQ62" s="244"/>
+      <c r="AQ62" s="129"/>
     </row>
     <row r="63" ht="108" spans="1:43">
       <c r="A63" s="70" t="s">
@@ -10627,10 +11189,10 @@
       <c r="AO63" s="74" t="s">
         <v>249</v>
       </c>
-      <c r="AP63" s="247">
+      <c r="AP63" s="237">
         <v>44548</v>
       </c>
-      <c r="AQ63" s="242"/>
+      <c r="AQ63" s="108"/>
     </row>
     <row r="64" ht="124" spans="1:43">
       <c r="A64" s="62" t="s">
@@ -10737,10 +11299,10 @@
       <c r="AO64" s="98" t="s">
         <v>254</v>
       </c>
-      <c r="AP64" s="248">
+      <c r="AP64" s="238">
         <v>44572</v>
       </c>
-      <c r="AQ64" s="249"/>
+      <c r="AQ64" s="103"/>
     </row>
     <row r="65" ht="106" spans="1:43">
       <c r="A65" s="70" t="s">
@@ -10841,10 +11403,10 @@
       <c r="AO65" s="74" t="s">
         <v>257</v>
       </c>
-      <c r="AP65" s="247">
+      <c r="AP65" s="237">
         <v>44548</v>
       </c>
-      <c r="AQ65" s="242"/>
+      <c r="AQ65" s="108"/>
     </row>
     <row r="66" ht="88" spans="1:43">
       <c r="A66" s="66" t="s">
@@ -10860,20 +11422,20 @@
         <v>74</v>
       </c>
       <c r="E66" s="105"/>
-      <c r="F66" s="251">
+      <c r="F66" s="240">
         <v>18.02</v>
       </c>
-      <c r="G66" s="251">
+      <c r="G66" s="240">
         <v>17.94</v>
       </c>
-      <c r="H66" s="251">
+      <c r="H66" s="240">
         <v>18.52</v>
       </c>
-      <c r="I66" s="255"/>
-      <c r="J66" s="255"/>
-      <c r="K66" s="255"/>
-      <c r="L66" s="255"/>
-      <c r="M66" s="255"/>
+      <c r="I66" s="244"/>
+      <c r="J66" s="244"/>
+      <c r="K66" s="244"/>
+      <c r="L66" s="244"/>
+      <c r="M66" s="244"/>
       <c r="N66" s="169" t="e">
         <f t="shared" si="17"/>
         <v>#DIV/0!</v>
@@ -10886,17 +11448,17 @@
         <f t="shared" si="19"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="Q66" s="255"/>
-      <c r="R66" s="255"/>
-      <c r="S66" s="255"/>
-      <c r="T66" s="255"/>
-      <c r="U66" s="255"/>
-      <c r="V66" s="255"/>
-      <c r="W66" s="255"/>
-      <c r="X66" s="255"/>
-      <c r="Y66" s="255"/>
-      <c r="Z66" s="255"/>
-      <c r="AA66" s="255"/>
+      <c r="Q66" s="244"/>
+      <c r="R66" s="244"/>
+      <c r="S66" s="244"/>
+      <c r="T66" s="244"/>
+      <c r="U66" s="244"/>
+      <c r="V66" s="244"/>
+      <c r="W66" s="244"/>
+      <c r="X66" s="244"/>
+      <c r="Y66" s="244"/>
+      <c r="Z66" s="244"/>
+      <c r="AA66" s="244"/>
       <c r="AB66" s="105"/>
       <c r="AC66" s="169" t="e">
         <f t="shared" si="27"/>
@@ -10914,8 +11476,8 @@
         <f t="shared" si="30"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AG66" s="269"/>
-      <c r="AH66" s="269"/>
+      <c r="AG66" s="258"/>
+      <c r="AH66" s="258"/>
       <c r="AI66" s="105"/>
       <c r="AJ66" s="105"/>
       <c r="AK66" s="105"/>
@@ -10925,10 +11487,10 @@
       <c r="AO66" s="95" t="s">
         <v>260</v>
       </c>
-      <c r="AP66" s="272">
+      <c r="AP66" s="261">
         <v>44548</v>
       </c>
-      <c r="AQ66" s="273"/>
+      <c r="AQ66" s="105"/>
     </row>
     <row r="67" ht="124" spans="1:43">
       <c r="A67" s="62" t="s">
@@ -11010,8 +11572,8 @@
         <f t="shared" si="30"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AG67" s="270"/>
-      <c r="AH67" s="270"/>
+      <c r="AG67" s="259"/>
+      <c r="AH67" s="259"/>
       <c r="AI67" s="103"/>
       <c r="AJ67" s="103"/>
       <c r="AK67" s="103"/>
@@ -11021,10 +11583,10 @@
       <c r="AO67" s="98" t="s">
         <v>264</v>
       </c>
-      <c r="AP67" s="248">
+      <c r="AP67" s="238">
         <v>44570</v>
       </c>
-      <c r="AQ67" s="249"/>
+      <c r="AQ67" s="103"/>
     </row>
     <row r="68" ht="106" spans="1:43">
       <c r="A68" s="89" t="s">
@@ -11121,10 +11683,10 @@
       <c r="AO68" s="92" t="s">
         <v>257</v>
       </c>
-      <c r="AP68" s="243">
+      <c r="AP68" s="235">
         <v>44548</v>
       </c>
-      <c r="AQ68" s="244"/>
+      <c r="AQ68" s="129"/>
     </row>
     <row r="69" ht="106" spans="1:43">
       <c r="A69" s="89" t="s">
@@ -11199,10 +11761,10 @@
       <c r="AO69" s="92" t="s">
         <v>257</v>
       </c>
-      <c r="AP69" s="243">
+      <c r="AP69" s="235">
         <v>44548</v>
       </c>
-      <c r="AQ69" s="244"/>
+      <c r="AQ69" s="129"/>
     </row>
     <row r="70" ht="106" spans="1:43">
       <c r="A70" s="78" t="s">
@@ -11217,7 +11779,7 @@
       <c r="D70" s="82" t="s">
         <v>272</v>
       </c>
-      <c r="E70" s="252"/>
+      <c r="E70" s="241"/>
       <c r="F70" s="131">
         <v>18.49</v>
       </c>
@@ -11311,10 +11873,10 @@
       <c r="AO70" s="82" t="s">
         <v>273</v>
       </c>
-      <c r="AP70" s="245">
+      <c r="AP70" s="236">
         <v>44578</v>
       </c>
-      <c r="AQ70" s="246"/>
+      <c r="AQ70" s="113"/>
     </row>
     <row r="71" ht="141" spans="1:43">
       <c r="A71" s="62" t="s">
@@ -11404,8 +11966,8 @@
         <f t="shared" si="30"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AG71" s="270"/>
-      <c r="AH71" s="270"/>
+      <c r="AG71" s="259"/>
+      <c r="AH71" s="259"/>
       <c r="AI71" s="103"/>
       <c r="AJ71" s="65" t="s">
         <v>164</v>
@@ -11425,10 +11987,10 @@
       <c r="AO71" s="98" t="s">
         <v>276</v>
       </c>
-      <c r="AP71" s="248">
+      <c r="AP71" s="238">
         <v>44578</v>
       </c>
-      <c r="AQ71" s="249"/>
+      <c r="AQ71" s="103"/>
     </row>
     <row r="72" ht="108" spans="1:43">
       <c r="A72" s="70" t="s">
@@ -11489,8 +12051,8 @@
       </c>
       <c r="T72" s="154"/>
       <c r="U72" s="154"/>
-      <c r="V72" s="264"/>
-      <c r="W72" s="264"/>
+      <c r="V72" s="253"/>
+      <c r="W72" s="253"/>
       <c r="X72" s="174"/>
       <c r="Y72" s="174"/>
       <c r="Z72" s="154"/>
@@ -11522,10 +12084,10 @@
       <c r="AO72" s="74" t="s">
         <v>279</v>
       </c>
-      <c r="AP72" s="247">
+      <c r="AP72" s="237">
         <v>44570</v>
       </c>
-      <c r="AQ72" s="242"/>
+      <c r="AQ72" s="108"/>
     </row>
     <row r="73" ht="106" spans="1:43">
       <c r="A73" s="66" t="s">
@@ -11541,26 +12103,26 @@
         <v>104</v>
       </c>
       <c r="E73" s="105"/>
-      <c r="F73" s="251">
+      <c r="F73" s="240">
         <v>312.52</v>
       </c>
-      <c r="G73" s="251">
+      <c r="G73" s="240">
         <v>332.09</v>
       </c>
-      <c r="H73" s="251">
+      <c r="H73" s="240">
         <v>375.41</v>
       </c>
-      <c r="I73" s="255"/>
-      <c r="J73" s="251">
+      <c r="I73" s="244"/>
+      <c r="J73" s="240">
         <v>345.5</v>
       </c>
-      <c r="K73" s="251">
+      <c r="K73" s="240">
         <v>133.42</v>
       </c>
-      <c r="L73" s="251">
+      <c r="L73" s="240">
         <v>452.78</v>
       </c>
-      <c r="M73" s="251">
+      <c r="M73" s="240">
         <v>342.47</v>
       </c>
       <c r="N73" s="169">
@@ -11575,19 +12137,19 @@
         <f t="shared" si="19"/>
         <v>0.322101205945046</v>
       </c>
-      <c r="Q73" s="251">
+      <c r="Q73" s="240">
         <v>342.18</v>
       </c>
-      <c r="R73" s="255"/>
-      <c r="S73" s="255"/>
-      <c r="T73" s="255"/>
-      <c r="U73" s="255"/>
-      <c r="V73" s="255"/>
-      <c r="W73" s="255"/>
-      <c r="X73" s="255"/>
-      <c r="Y73" s="255"/>
-      <c r="Z73" s="255"/>
-      <c r="AA73" s="255"/>
+      <c r="R73" s="244"/>
+      <c r="S73" s="244"/>
+      <c r="T73" s="244"/>
+      <c r="U73" s="244"/>
+      <c r="V73" s="244"/>
+      <c r="W73" s="244"/>
+      <c r="X73" s="244"/>
+      <c r="Y73" s="244"/>
+      <c r="Z73" s="244"/>
+      <c r="AA73" s="244"/>
       <c r="AB73" s="69" t="s">
         <v>237</v>
       </c>
@@ -11607,8 +12169,8 @@
         <f t="shared" ref="AF73:AF79" si="31">(V73-W73)/V73</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AG73" s="269"/>
-      <c r="AH73" s="269"/>
+      <c r="AG73" s="258"/>
+      <c r="AH73" s="258"/>
       <c r="AI73" s="105"/>
       <c r="AJ73" s="105"/>
       <c r="AK73" s="105"/>
@@ -11618,10 +12180,10 @@
       <c r="AO73" s="95" t="s">
         <v>257</v>
       </c>
-      <c r="AP73" s="272">
+      <c r="AP73" s="261">
         <v>44548</v>
       </c>
-      <c r="AQ73" s="273"/>
+      <c r="AQ73" s="105"/>
     </row>
     <row r="74" ht="106" spans="1:43">
       <c r="A74" s="66" t="s">
@@ -11637,26 +12199,26 @@
         <v>284</v>
       </c>
       <c r="E74" s="105"/>
-      <c r="F74" s="251">
+      <c r="F74" s="240">
         <v>39.1</v>
       </c>
-      <c r="G74" s="251">
+      <c r="G74" s="240">
         <v>38.97</v>
       </c>
-      <c r="H74" s="251">
+      <c r="H74" s="240">
         <v>40.14</v>
       </c>
-      <c r="I74" s="255"/>
-      <c r="J74" s="251">
+      <c r="I74" s="244"/>
+      <c r="J74" s="240">
         <v>40.96</v>
       </c>
-      <c r="K74" s="251">
+      <c r="K74" s="240">
         <v>30.9</v>
       </c>
-      <c r="L74" s="251">
+      <c r="L74" s="240">
         <v>51.03</v>
       </c>
-      <c r="M74" s="251">
+      <c r="M74" s="240">
         <v>38.66</v>
       </c>
       <c r="N74" s="169">
@@ -11671,37 +12233,37 @@
         <f t="shared" si="19"/>
         <v>0.319968960165546</v>
       </c>
-      <c r="Q74" s="251">
+      <c r="Q74" s="240">
         <v>30.9</v>
       </c>
-      <c r="R74" s="251">
+      <c r="R74" s="240">
         <v>36.49</v>
       </c>
-      <c r="S74" s="251">
+      <c r="S74" s="240">
         <v>32.6</v>
       </c>
-      <c r="T74" s="251">
+      <c r="T74" s="240">
         <v>37.68</v>
       </c>
-      <c r="U74" s="251">
+      <c r="U74" s="240">
         <v>34.35</v>
       </c>
-      <c r="V74" s="251">
+      <c r="V74" s="240">
         <v>40.53</v>
       </c>
-      <c r="W74" s="251">
+      <c r="W74" s="240">
         <v>37.38</v>
       </c>
-      <c r="X74" s="251">
+      <c r="X74" s="240">
         <v>44.25</v>
       </c>
-      <c r="Y74" s="251">
+      <c r="Y74" s="240">
         <v>38.32</v>
       </c>
-      <c r="Z74" s="251">
+      <c r="Z74" s="240">
         <v>43.92</v>
       </c>
-      <c r="AA74" s="251">
+      <c r="AA74" s="240">
         <v>40.59</v>
       </c>
       <c r="AB74" s="69" t="s">
@@ -11723,11 +12285,11 @@
         <f t="shared" si="31"/>
         <v>0.077720207253886</v>
       </c>
-      <c r="AG74" s="271">
+      <c r="AG74" s="260">
         <f t="shared" ref="AG74:AG79" si="32">(X74-Y74)/X74</f>
         <v>0.134011299435028</v>
       </c>
-      <c r="AH74" s="271">
+      <c r="AH74" s="260">
         <f>(Z74-AA74)/Z74</f>
         <v>0.0758196721311475</v>
       </c>
@@ -11740,10 +12302,10 @@
       <c r="AO74" s="95" t="s">
         <v>286</v>
       </c>
-      <c r="AP74" s="272">
+      <c r="AP74" s="261">
         <v>44548</v>
       </c>
-      <c r="AQ74" s="273"/>
+      <c r="AQ74" s="105"/>
     </row>
     <row r="75" ht="124" spans="1:43">
       <c r="A75" s="62" t="s">
@@ -11829,7 +12391,7 @@
         <f t="shared" si="32"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AH75" s="270"/>
+      <c r="AH75" s="259"/>
       <c r="AI75" s="103"/>
       <c r="AJ75" s="103"/>
       <c r="AK75" s="103"/>
@@ -11839,10 +12401,10 @@
       <c r="AO75" s="98" t="s">
         <v>290</v>
       </c>
-      <c r="AP75" s="248">
+      <c r="AP75" s="238">
         <v>44578</v>
       </c>
-      <c r="AQ75" s="249"/>
+      <c r="AQ75" s="103"/>
     </row>
     <row r="76" ht="124" spans="1:43">
       <c r="A76" s="89" t="s">
@@ -11942,10 +12504,10 @@
       <c r="AO76" s="92" t="s">
         <v>293</v>
       </c>
-      <c r="AP76" s="243">
+      <c r="AP76" s="235">
         <v>44548</v>
       </c>
-      <c r="AQ76" s="244"/>
+      <c r="AQ76" s="129"/>
     </row>
     <row r="77" ht="124" spans="1:43">
       <c r="A77" s="89" t="s">
@@ -12045,10 +12607,10 @@
       <c r="AO77" s="92" t="s">
         <v>296</v>
       </c>
-      <c r="AP77" s="243">
+      <c r="AP77" s="235">
         <v>44548</v>
       </c>
-      <c r="AQ77" s="244"/>
+      <c r="AQ77" s="129"/>
     </row>
     <row r="78" ht="88" spans="1:43">
       <c r="A78" s="89" t="s">
@@ -12126,10 +12688,10 @@
       <c r="AO78" s="92" t="s">
         <v>300</v>
       </c>
-      <c r="AP78" s="243">
+      <c r="AP78" s="235">
         <v>44548</v>
       </c>
-      <c r="AQ78" s="244"/>
+      <c r="AQ78" s="129"/>
     </row>
     <row r="79" ht="141" spans="1:43">
       <c r="A79" s="62" t="s">
@@ -12223,7 +12785,7 @@
         <f t="shared" si="32"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AH79" s="270"/>
+      <c r="AH79" s="259"/>
       <c r="AI79" s="103"/>
       <c r="AJ79" s="103"/>
       <c r="AK79" s="103"/>
@@ -12233,10 +12795,10 @@
       <c r="AO79" s="98" t="s">
         <v>276</v>
       </c>
-      <c r="AP79" s="248">
+      <c r="AP79" s="238">
         <v>44578</v>
       </c>
-      <c r="AQ79" s="249"/>
+      <c r="AQ79" s="103"/>
     </row>
     <row r="80" ht="122" spans="1:43">
       <c r="A80" s="58" t="s">
@@ -12252,85 +12814,85 @@
         <v>71</v>
       </c>
       <c r="E80" s="116"/>
-      <c r="F80" s="253">
+      <c r="F80" s="242">
         <v>32.45</v>
       </c>
-      <c r="G80" s="253">
+      <c r="G80" s="242">
         <v>35.34</v>
       </c>
-      <c r="H80" s="253">
+      <c r="H80" s="242">
         <v>46.53</v>
       </c>
-      <c r="I80" s="256"/>
-      <c r="J80" s="253">
+      <c r="I80" s="245"/>
+      <c r="J80" s="242">
         <v>49.39</v>
       </c>
-      <c r="K80" s="253">
+      <c r="K80" s="242">
         <v>15.01</v>
       </c>
-      <c r="L80" s="253">
+      <c r="L80" s="242">
         <v>57.71</v>
       </c>
-      <c r="M80" s="253">
+      <c r="M80" s="242">
         <v>26.45</v>
       </c>
-      <c r="N80" s="258">
+      <c r="N80" s="247">
         <f t="shared" si="17"/>
         <v>2.29047301798801</v>
       </c>
-      <c r="O80" s="258">
+      <c r="O80" s="247">
         <f t="shared" si="18"/>
         <v>0.144169121469416</v>
       </c>
-      <c r="P80" s="259">
+      <c r="P80" s="248">
         <f t="shared" si="19"/>
         <v>1.18185255198488</v>
       </c>
-      <c r="Q80" s="253">
+      <c r="Q80" s="242">
         <v>44</v>
       </c>
-      <c r="R80" s="253">
+      <c r="R80" s="242">
         <v>55.5</v>
       </c>
-      <c r="S80" s="253">
+      <c r="S80" s="242">
         <v>47.5</v>
       </c>
-      <c r="T80" s="256"/>
-      <c r="U80" s="256"/>
-      <c r="V80" s="256"/>
-      <c r="W80" s="256"/>
-      <c r="X80" s="256"/>
-      <c r="Y80" s="256"/>
-      <c r="Z80" s="256"/>
-      <c r="AA80" s="256"/>
+      <c r="T80" s="245"/>
+      <c r="U80" s="245"/>
+      <c r="V80" s="245"/>
+      <c r="W80" s="245"/>
+      <c r="X80" s="245"/>
+      <c r="Y80" s="245"/>
+      <c r="Z80" s="245"/>
+      <c r="AA80" s="245"/>
       <c r="AB80" s="61" t="s">
         <v>121</v>
       </c>
-      <c r="AC80" s="258">
+      <c r="AC80" s="247">
         <f t="shared" si="27"/>
         <v>0.237567146075204</v>
       </c>
-      <c r="AD80" s="258">
+      <c r="AD80" s="247">
         <f t="shared" si="28"/>
         <v>0.144144144144144</v>
       </c>
-      <c r="AE80" s="267"/>
-      <c r="AF80" s="267"/>
-      <c r="AG80" s="267"/>
-      <c r="AH80" s="267"/>
+      <c r="AE80" s="256"/>
+      <c r="AF80" s="256"/>
+      <c r="AG80" s="256"/>
+      <c r="AH80" s="256"/>
       <c r="AI80" s="116"/>
       <c r="AJ80" s="116"/>
       <c r="AK80" s="116"/>
       <c r="AL80" s="116"/>
       <c r="AM80" s="116"/>
       <c r="AN80" s="116"/>
-      <c r="AO80" s="274" t="s">
+      <c r="AO80" s="262" t="s">
         <v>306</v>
       </c>
-      <c r="AP80" s="275">
+      <c r="AP80" s="263">
         <v>44556</v>
       </c>
-      <c r="AQ80" s="276"/>
+      <c r="AQ80" s="116"/>
     </row>
     <row r="81" ht="141" spans="1:43">
       <c r="A81" s="70" t="s">
@@ -12407,10 +12969,10 @@
       <c r="AO81" s="74" t="s">
         <v>309</v>
       </c>
-      <c r="AP81" s="247">
+      <c r="AP81" s="237">
         <v>44570</v>
       </c>
-      <c r="AQ81" s="242"/>
+      <c r="AQ81" s="108"/>
     </row>
     <row r="82" ht="247" spans="1:43">
       <c r="A82" s="58" t="s">
@@ -12426,93 +12988,93 @@
         <v>312</v>
       </c>
       <c r="E82" s="116"/>
-      <c r="F82" s="253">
+      <c r="F82" s="242">
         <v>24.6</v>
       </c>
-      <c r="G82" s="253">
+      <c r="G82" s="242">
         <v>24.67</v>
       </c>
-      <c r="H82" s="253">
+      <c r="H82" s="242">
         <v>25.03</v>
       </c>
-      <c r="I82" s="256"/>
-      <c r="J82" s="253">
+      <c r="I82" s="245"/>
+      <c r="J82" s="242">
         <v>26.09</v>
       </c>
-      <c r="K82" s="253">
+      <c r="K82" s="242">
         <v>20.91</v>
       </c>
-      <c r="L82" s="253">
+      <c r="L82" s="242">
         <v>32.46</v>
       </c>
-      <c r="M82" s="253">
+      <c r="M82" s="242">
         <v>23.16</v>
       </c>
-      <c r="N82" s="260">
+      <c r="N82" s="249">
         <f t="shared" si="17"/>
         <v>0.247728359636538</v>
       </c>
-      <c r="O82" s="260">
+      <c r="O82" s="249">
         <f t="shared" si="18"/>
         <v>0.196241528034504</v>
       </c>
-      <c r="P82" s="260">
+      <c r="P82" s="249">
         <f t="shared" si="19"/>
         <v>0.401554404145078</v>
       </c>
-      <c r="Q82" s="253">
+      <c r="Q82" s="242">
         <v>21.45</v>
       </c>
-      <c r="R82" s="253">
+      <c r="R82" s="242">
         <v>26.25</v>
       </c>
-      <c r="S82" s="253">
+      <c r="S82" s="242">
         <v>22.19</v>
       </c>
-      <c r="T82" s="253">
+      <c r="T82" s="242">
         <v>26.27</v>
       </c>
-      <c r="U82" s="253">
+      <c r="U82" s="242">
         <v>22.6</v>
       </c>
-      <c r="V82" s="265">
+      <c r="V82" s="254">
         <v>28.87</v>
       </c>
-      <c r="W82" s="265">
+      <c r="W82" s="254">
         <v>25.63</v>
       </c>
-      <c r="X82" s="265">
+      <c r="X82" s="254">
         <v>27.45</v>
       </c>
-      <c r="Y82" s="265">
+      <c r="Y82" s="254">
         <v>25.7</v>
       </c>
-      <c r="Z82" s="256"/>
-      <c r="AA82" s="256"/>
+      <c r="Z82" s="245"/>
+      <c r="AA82" s="245"/>
       <c r="AB82" s="61" t="s">
         <v>313</v>
       </c>
-      <c r="AC82" s="260">
+      <c r="AC82" s="249">
         <f t="shared" ref="AC82:AC105" si="33">(L82-Q82)/L82</f>
         <v>0.339186691312384</v>
       </c>
-      <c r="AD82" s="260">
+      <c r="AD82" s="249">
         <f t="shared" ref="AD82:AD105" si="34">(R82-S82)/R82</f>
         <v>0.154666666666667</v>
       </c>
-      <c r="AE82" s="260">
+      <c r="AE82" s="249">
         <f t="shared" ref="AE82:AE91" si="35">(T82-U82)/T82</f>
         <v>0.139703083365055</v>
       </c>
-      <c r="AF82" s="260">
+      <c r="AF82" s="249">
         <f t="shared" ref="AF82:AF91" si="36">(V82-W82)/V82</f>
         <v>0.112227225493592</v>
       </c>
-      <c r="AG82" s="260">
+      <c r="AG82" s="249">
         <f t="shared" ref="AG82:AG91" si="37">(X82-Y82)/X82</f>
         <v>0.063752276867031</v>
       </c>
-      <c r="AH82" s="267"/>
+      <c r="AH82" s="256"/>
       <c r="AI82" s="61" t="s">
         <v>314</v>
       </c>
@@ -12531,13 +13093,13 @@
       <c r="AN82" s="61" t="s">
         <v>164</v>
       </c>
-      <c r="AO82" s="274" t="s">
+      <c r="AO82" s="262" t="s">
         <v>315</v>
       </c>
-      <c r="AP82" s="275">
+      <c r="AP82" s="263">
         <v>44572</v>
       </c>
-      <c r="AQ82" s="276"/>
+      <c r="AQ82" s="116"/>
     </row>
     <row r="83" ht="141" spans="1:43">
       <c r="A83" s="70" t="s">
@@ -12639,10 +13201,10 @@
       <c r="AO83" s="74" t="s">
         <v>319</v>
       </c>
-      <c r="AP83" s="247">
+      <c r="AP83" s="237">
         <v>44557</v>
       </c>
-      <c r="AQ83" s="242"/>
+      <c r="AQ83" s="108"/>
     </row>
     <row r="84" ht="124" spans="1:43">
       <c r="A84" s="89" t="s">
@@ -12738,10 +13300,10 @@
       <c r="AO84" s="92" t="s">
         <v>293</v>
       </c>
-      <c r="AP84" s="243">
+      <c r="AP84" s="235">
         <v>44548</v>
       </c>
-      <c r="AQ84" s="244"/>
+      <c r="AQ84" s="129"/>
     </row>
     <row r="85" ht="124" spans="1:43">
       <c r="A85" s="78" t="s">
@@ -12861,10 +13423,10 @@
       <c r="AO85" s="82" t="s">
         <v>325</v>
       </c>
-      <c r="AP85" s="245">
+      <c r="AP85" s="236">
         <v>44574</v>
       </c>
-      <c r="AQ85" s="246"/>
+      <c r="AQ85" s="113"/>
     </row>
     <row r="86" ht="36" spans="1:43">
       <c r="A86" s="70" t="s">
@@ -12976,10 +13538,10 @@
       <c r="AO86" s="74" t="s">
         <v>144</v>
       </c>
-      <c r="AP86" s="247">
+      <c r="AP86" s="237">
         <v>44553</v>
       </c>
-      <c r="AQ86" s="242"/>
+      <c r="AQ86" s="108"/>
     </row>
     <row r="87" ht="88" spans="1:43">
       <c r="A87" s="70" t="s">
@@ -13057,10 +13619,10 @@
       <c r="AO87" s="74" t="s">
         <v>332</v>
       </c>
-      <c r="AP87" s="247">
+      <c r="AP87" s="237">
         <v>44548</v>
       </c>
-      <c r="AQ87" s="242"/>
+      <c r="AQ87" s="108"/>
     </row>
     <row r="88" ht="88" spans="1:43">
       <c r="A88" s="70" t="s">
@@ -13138,10 +13700,10 @@
       <c r="AO88" s="74" t="s">
         <v>332</v>
       </c>
-      <c r="AP88" s="247">
+      <c r="AP88" s="237">
         <v>44548</v>
       </c>
-      <c r="AQ88" s="242"/>
+      <c r="AQ88" s="108"/>
     </row>
     <row r="89" ht="124" spans="1:43">
       <c r="A89" s="70" t="s">
@@ -13223,10 +13785,10 @@
       <c r="AO89" s="74" t="s">
         <v>337</v>
       </c>
-      <c r="AP89" s="247">
+      <c r="AP89" s="237">
         <v>44548</v>
       </c>
-      <c r="AQ89" s="242"/>
+      <c r="AQ89" s="108"/>
     </row>
     <row r="90" ht="176" spans="1:43">
       <c r="A90" s="70" t="s">
@@ -13318,10 +13880,10 @@
       <c r="AO90" s="74" t="s">
         <v>340</v>
       </c>
-      <c r="AP90" s="247">
+      <c r="AP90" s="237">
         <v>44548</v>
       </c>
-      <c r="AQ90" s="242"/>
+      <c r="AQ90" s="108"/>
     </row>
     <row r="91" ht="176" spans="1:43">
       <c r="A91" s="70" t="s">
@@ -13415,10 +13977,10 @@
       <c r="AO91" s="74" t="s">
         <v>344</v>
       </c>
-      <c r="AP91" s="247">
+      <c r="AP91" s="237">
         <v>44548</v>
       </c>
-      <c r="AQ91" s="242"/>
+      <c r="AQ91" s="108"/>
     </row>
     <row r="92" ht="122" spans="1:43">
       <c r="A92" s="85" t="s">
@@ -13427,88 +13989,88 @@
       <c r="B92" s="86" t="s">
         <v>346</v>
       </c>
-      <c r="C92" s="250">
+      <c r="C92" s="239">
         <v>1.2</v>
       </c>
       <c r="D92" s="88" t="s">
         <v>93</v>
       </c>
       <c r="E92" s="121"/>
-      <c r="F92" s="254">
+      <c r="F92" s="243">
         <v>35.31</v>
       </c>
-      <c r="G92" s="254">
+      <c r="G92" s="243">
         <v>37.3</v>
       </c>
-      <c r="H92" s="254">
+      <c r="H92" s="243">
         <v>46.29</v>
       </c>
-      <c r="I92" s="257"/>
-      <c r="J92" s="254">
+      <c r="I92" s="246"/>
+      <c r="J92" s="243">
         <v>66.13</v>
       </c>
-      <c r="K92" s="254">
+      <c r="K92" s="243">
         <v>22.62</v>
       </c>
-      <c r="L92" s="254">
+      <c r="L92" s="243">
         <v>69.49</v>
       </c>
-      <c r="M92" s="254">
+      <c r="M92" s="243">
         <v>26.4</v>
       </c>
-      <c r="N92" s="261">
+      <c r="N92" s="250">
         <f t="shared" si="17"/>
         <v>1.92351900972591</v>
       </c>
-      <c r="O92" s="261">
+      <c r="O92" s="250">
         <f t="shared" si="18"/>
         <v>0.0483522809037272</v>
       </c>
-      <c r="P92" s="262">
+      <c r="P92" s="251">
         <f t="shared" si="19"/>
         <v>1.63219696969697</v>
       </c>
-      <c r="Q92" s="254">
+      <c r="Q92" s="243">
         <v>53.15</v>
       </c>
-      <c r="R92" s="257"/>
-      <c r="S92" s="257"/>
-      <c r="T92" s="257"/>
-      <c r="U92" s="257"/>
-      <c r="V92" s="257"/>
-      <c r="W92" s="257"/>
-      <c r="X92" s="257"/>
-      <c r="Y92" s="257"/>
-      <c r="Z92" s="257"/>
-      <c r="AA92" s="257"/>
+      <c r="R92" s="246"/>
+      <c r="S92" s="246"/>
+      <c r="T92" s="246"/>
+      <c r="U92" s="246"/>
+      <c r="V92" s="246"/>
+      <c r="W92" s="246"/>
+      <c r="X92" s="246"/>
+      <c r="Y92" s="246"/>
+      <c r="Z92" s="246"/>
+      <c r="AA92" s="246"/>
       <c r="AB92" s="88" t="s">
         <v>134</v>
       </c>
-      <c r="AC92" s="261">
+      <c r="AC92" s="250">
         <f t="shared" si="33"/>
         <v>0.235141747013959</v>
       </c>
-      <c r="AD92" s="261" t="e">
+      <c r="AD92" s="250" t="e">
         <f t="shared" si="34"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AE92" s="268"/>
-      <c r="AF92" s="268"/>
-      <c r="AG92" s="268"/>
-      <c r="AH92" s="268"/>
+      <c r="AE92" s="257"/>
+      <c r="AF92" s="257"/>
+      <c r="AG92" s="257"/>
+      <c r="AH92" s="257"/>
       <c r="AI92" s="121"/>
       <c r="AJ92" s="121"/>
       <c r="AK92" s="121"/>
       <c r="AL92" s="121"/>
       <c r="AM92" s="121"/>
       <c r="AN92" s="121"/>
-      <c r="AO92" s="277" t="s">
+      <c r="AO92" s="264" t="s">
         <v>306</v>
       </c>
-      <c r="AP92" s="278">
+      <c r="AP92" s="265">
         <v>44553</v>
       </c>
-      <c r="AQ92" s="279"/>
+      <c r="AQ92" s="121"/>
     </row>
     <row r="93" ht="106" spans="1:43">
       <c r="A93" s="89" t="s">
@@ -13586,10 +14148,10 @@
       <c r="AO93" s="92" t="s">
         <v>257</v>
       </c>
-      <c r="AP93" s="243">
+      <c r="AP93" s="235">
         <v>44548</v>
       </c>
-      <c r="AQ93" s="244"/>
+      <c r="AQ93" s="129"/>
     </row>
     <row r="94" ht="124" spans="1:43">
       <c r="A94" s="70" t="s">
@@ -13671,10 +14233,10 @@
       <c r="AO94" s="74" t="s">
         <v>337</v>
       </c>
-      <c r="AP94" s="247">
+      <c r="AP94" s="237">
         <v>44548</v>
       </c>
-      <c r="AQ94" s="242"/>
+      <c r="AQ94" s="108"/>
     </row>
     <row r="95" ht="141" spans="1:43">
       <c r="A95" s="70" t="s">
@@ -13766,10 +14328,10 @@
       <c r="AO95" s="74" t="s">
         <v>354</v>
       </c>
-      <c r="AP95" s="247">
+      <c r="AP95" s="237">
         <v>44548</v>
       </c>
-      <c r="AQ95" s="242"/>
+      <c r="AQ95" s="108"/>
     </row>
     <row r="96" ht="106" spans="1:43">
       <c r="A96" s="58" t="s">
@@ -13785,88 +14347,88 @@
         <v>284</v>
       </c>
       <c r="E96" s="116"/>
-      <c r="F96" s="253">
+      <c r="F96" s="242">
         <v>49.92</v>
       </c>
-      <c r="G96" s="253">
+      <c r="G96" s="242">
         <v>50.21</v>
       </c>
-      <c r="H96" s="253">
+      <c r="H96" s="242">
         <v>54.33</v>
       </c>
-      <c r="I96" s="256"/>
-      <c r="J96" s="253">
+      <c r="I96" s="245"/>
+      <c r="J96" s="242">
         <v>60.51</v>
       </c>
-      <c r="K96" s="253">
+      <c r="K96" s="242">
         <v>35.8</v>
       </c>
-      <c r="L96" s="253">
+      <c r="L96" s="242">
         <v>69.1</v>
       </c>
-      <c r="M96" s="253">
+      <c r="M96" s="242">
         <v>58.63</v>
       </c>
-      <c r="N96" s="260">
+      <c r="N96" s="249">
         <f t="shared" si="17"/>
         <v>0.690223463687151</v>
       </c>
-      <c r="O96" s="260">
+      <c r="O96" s="249">
         <f t="shared" si="18"/>
         <v>0.124312590448625</v>
       </c>
-      <c r="P96" s="260">
+      <c r="P96" s="249">
         <f t="shared" si="19"/>
         <v>0.178577520040935</v>
       </c>
-      <c r="Q96" s="253">
+      <c r="Q96" s="242">
         <v>35.8</v>
       </c>
-      <c r="R96" s="253">
+      <c r="R96" s="242">
         <v>46.88</v>
       </c>
-      <c r="S96" s="253">
+      <c r="S96" s="242">
         <v>36.02</v>
       </c>
-      <c r="T96" s="253">
+      <c r="T96" s="242">
         <v>59.53</v>
       </c>
-      <c r="U96" s="253">
+      <c r="U96" s="242">
         <v>51.98</v>
       </c>
-      <c r="V96" s="253">
+      <c r="V96" s="242">
         <v>59.5</v>
       </c>
-      <c r="W96" s="253">
+      <c r="W96" s="242">
         <v>54.81</v>
       </c>
-      <c r="X96" s="265">
+      <c r="X96" s="254">
         <v>61.7</v>
       </c>
-      <c r="Y96" s="266"/>
-      <c r="Z96" s="256"/>
-      <c r="AA96" s="256"/>
+      <c r="Y96" s="255"/>
+      <c r="Z96" s="245"/>
+      <c r="AA96" s="245"/>
       <c r="AB96" s="61" t="s">
         <v>357</v>
       </c>
-      <c r="AC96" s="260">
+      <c r="AC96" s="249">
         <f t="shared" si="33"/>
         <v>0.481910274963821</v>
       </c>
-      <c r="AD96" s="260">
+      <c r="AD96" s="249">
         <f t="shared" si="34"/>
         <v>0.231655290102389</v>
       </c>
-      <c r="AE96" s="260">
+      <c r="AE96" s="249">
         <f t="shared" si="38"/>
         <v>0.126826810011759</v>
       </c>
-      <c r="AF96" s="260">
+      <c r="AF96" s="249">
         <f t="shared" si="39"/>
         <v>0.0788235294117647</v>
       </c>
-      <c r="AG96" s="267"/>
-      <c r="AH96" s="267"/>
+      <c r="AG96" s="256"/>
+      <c r="AH96" s="256"/>
       <c r="AI96" s="61" t="s">
         <v>52</v>
       </c>
@@ -13885,13 +14447,13 @@
       <c r="AN96" s="61" t="s">
         <v>164</v>
       </c>
-      <c r="AO96" s="274" t="s">
+      <c r="AO96" s="262" t="s">
         <v>358</v>
       </c>
-      <c r="AP96" s="275">
+      <c r="AP96" s="263">
         <v>44553</v>
       </c>
-      <c r="AQ96" s="276"/>
+      <c r="AQ96" s="116"/>
     </row>
     <row r="97" ht="88" spans="1:43">
       <c r="A97" s="89" t="s">
@@ -13966,10 +14528,10 @@
       <c r="AO97" s="92" t="s">
         <v>361</v>
       </c>
-      <c r="AP97" s="243">
+      <c r="AP97" s="235">
         <v>44548</v>
       </c>
-      <c r="AQ97" s="244"/>
+      <c r="AQ97" s="129"/>
     </row>
     <row r="98" ht="106" spans="1:43">
       <c r="A98" s="62" t="s">
@@ -14033,8 +14595,8 @@
         <f t="shared" si="39"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AG98" s="270"/>
-      <c r="AH98" s="270"/>
+      <c r="AG98" s="259"/>
+      <c r="AH98" s="259"/>
       <c r="AI98" s="103"/>
       <c r="AJ98" s="103"/>
       <c r="AK98" s="103"/>
@@ -14044,10 +14606,10 @@
       <c r="AO98" s="98" t="s">
         <v>257</v>
       </c>
-      <c r="AP98" s="248">
+      <c r="AP98" s="238">
         <v>44548</v>
       </c>
-      <c r="AQ98" s="249"/>
+      <c r="AQ98" s="103"/>
     </row>
     <row r="99" ht="124" spans="1:43">
       <c r="A99" s="89" t="s">
@@ -14140,10 +14702,10 @@
       <c r="AO99" s="92" t="s">
         <v>293</v>
       </c>
-      <c r="AP99" s="243">
+      <c r="AP99" s="235">
         <v>44548</v>
       </c>
-      <c r="AQ99" s="244"/>
+      <c r="AQ99" s="129"/>
     </row>
     <row r="100" ht="124" spans="1:43">
       <c r="A100" s="62" t="s">
@@ -14225,8 +14787,8 @@
         <f t="shared" si="39"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AG100" s="270"/>
-      <c r="AH100" s="270"/>
+      <c r="AG100" s="259"/>
+      <c r="AH100" s="259"/>
       <c r="AI100" s="103"/>
       <c r="AJ100" s="103"/>
       <c r="AK100" s="103"/>
@@ -14236,10 +14798,10 @@
       <c r="AO100" s="98" t="s">
         <v>369</v>
       </c>
-      <c r="AP100" s="248">
+      <c r="AP100" s="238">
         <v>44572</v>
       </c>
-      <c r="AQ100" s="249"/>
+      <c r="AQ100" s="103"/>
     </row>
     <row r="101" ht="106" spans="1:43">
       <c r="A101" s="62" t="s">
@@ -14307,8 +14869,8 @@
         <f t="shared" si="39"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AG101" s="270"/>
-      <c r="AH101" s="270"/>
+      <c r="AG101" s="259"/>
+      <c r="AH101" s="259"/>
       <c r="AI101" s="103"/>
       <c r="AJ101" s="103"/>
       <c r="AK101" s="103"/>
@@ -14318,10 +14880,10 @@
       <c r="AO101" s="98" t="s">
         <v>257</v>
       </c>
-      <c r="AP101" s="248">
+      <c r="AP101" s="238">
         <v>44548</v>
       </c>
-      <c r="AQ101" s="249"/>
+      <c r="AQ101" s="103"/>
     </row>
     <row r="102" ht="124" spans="1:43">
       <c r="A102" s="89" t="s">
@@ -14426,10 +14988,10 @@
       <c r="AO102" s="92" t="s">
         <v>293</v>
       </c>
-      <c r="AP102" s="243">
+      <c r="AP102" s="235">
         <v>44548</v>
       </c>
-      <c r="AQ102" s="244"/>
+      <c r="AQ102" s="129"/>
     </row>
     <row r="103" ht="71" spans="1:43">
       <c r="A103" s="89" t="s">
@@ -14498,10 +15060,10 @@
       <c r="AO103" s="92" t="s">
         <v>377</v>
       </c>
-      <c r="AP103" s="243">
+      <c r="AP103" s="235">
         <v>44548</v>
       </c>
-      <c r="AQ103" s="244"/>
+      <c r="AQ103" s="129"/>
     </row>
     <row r="104" ht="106" spans="1:43">
       <c r="A104" s="66" t="s">
@@ -14517,14 +15079,14 @@
         <v>284</v>
       </c>
       <c r="E104" s="105"/>
-      <c r="F104" s="255"/>
-      <c r="G104" s="255"/>
-      <c r="H104" s="255"/>
-      <c r="I104" s="255"/>
-      <c r="J104" s="255"/>
-      <c r="K104" s="255"/>
-      <c r="L104" s="255"/>
-      <c r="M104" s="255"/>
+      <c r="F104" s="244"/>
+      <c r="G104" s="244"/>
+      <c r="H104" s="244"/>
+      <c r="I104" s="244"/>
+      <c r="J104" s="244"/>
+      <c r="K104" s="244"/>
+      <c r="L104" s="244"/>
+      <c r="M104" s="244"/>
       <c r="N104" s="169" t="e">
         <f t="shared" si="17"/>
         <v>#DIV/0!</v>
@@ -14537,17 +15099,17 @@
         <f t="shared" si="19"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="Q104" s="255"/>
-      <c r="R104" s="255"/>
-      <c r="S104" s="255"/>
-      <c r="T104" s="255"/>
-      <c r="U104" s="255"/>
-      <c r="V104" s="255"/>
-      <c r="W104" s="255"/>
-      <c r="X104" s="255"/>
-      <c r="Y104" s="255"/>
-      <c r="Z104" s="255"/>
-      <c r="AA104" s="255"/>
+      <c r="Q104" s="244"/>
+      <c r="R104" s="244"/>
+      <c r="S104" s="244"/>
+      <c r="T104" s="244"/>
+      <c r="U104" s="244"/>
+      <c r="V104" s="244"/>
+      <c r="W104" s="244"/>
+      <c r="X104" s="244"/>
+      <c r="Y104" s="244"/>
+      <c r="Z104" s="244"/>
+      <c r="AA104" s="244"/>
       <c r="AB104" s="105"/>
       <c r="AC104" s="169" t="e">
         <f t="shared" si="33"/>
@@ -14557,10 +15119,10 @@
         <f t="shared" si="34"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AE104" s="269"/>
-      <c r="AF104" s="269"/>
-      <c r="AG104" s="269"/>
-      <c r="AH104" s="269"/>
+      <c r="AE104" s="258"/>
+      <c r="AF104" s="258"/>
+      <c r="AG104" s="258"/>
+      <c r="AH104" s="258"/>
       <c r="AI104" s="105"/>
       <c r="AJ104" s="105"/>
       <c r="AK104" s="105"/>
@@ -14570,10 +15132,10 @@
       <c r="AO104" s="95" t="s">
         <v>257</v>
       </c>
-      <c r="AP104" s="272">
+      <c r="AP104" s="261">
         <v>44548</v>
       </c>
-      <c r="AQ104" s="273"/>
+      <c r="AQ104" s="105"/>
     </row>
     <row r="105" ht="106" spans="1:43">
       <c r="A105" s="66" t="s">
@@ -14589,14 +15151,14 @@
         <v>104</v>
       </c>
       <c r="E105" s="105"/>
-      <c r="F105" s="255"/>
-      <c r="G105" s="255"/>
-      <c r="H105" s="255"/>
-      <c r="I105" s="255"/>
-      <c r="J105" s="255"/>
-      <c r="K105" s="255"/>
-      <c r="L105" s="255"/>
-      <c r="M105" s="255"/>
+      <c r="F105" s="244"/>
+      <c r="G105" s="244"/>
+      <c r="H105" s="244"/>
+      <c r="I105" s="244"/>
+      <c r="J105" s="244"/>
+      <c r="K105" s="244"/>
+      <c r="L105" s="244"/>
+      <c r="M105" s="244"/>
       <c r="N105" s="169" t="e">
         <f t="shared" si="17"/>
         <v>#DIV/0!</v>
@@ -14609,17 +15171,17 @@
         <f t="shared" si="19"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="Q105" s="255"/>
-      <c r="R105" s="255"/>
-      <c r="S105" s="255"/>
-      <c r="T105" s="255"/>
-      <c r="U105" s="255"/>
-      <c r="V105" s="255"/>
-      <c r="W105" s="255"/>
-      <c r="X105" s="255"/>
-      <c r="Y105" s="255"/>
-      <c r="Z105" s="255"/>
-      <c r="AA105" s="255"/>
+      <c r="Q105" s="244"/>
+      <c r="R105" s="244"/>
+      <c r="S105" s="244"/>
+      <c r="T105" s="244"/>
+      <c r="U105" s="244"/>
+      <c r="V105" s="244"/>
+      <c r="W105" s="244"/>
+      <c r="X105" s="244"/>
+      <c r="Y105" s="244"/>
+      <c r="Z105" s="244"/>
+      <c r="AA105" s="244"/>
       <c r="AB105" s="105"/>
       <c r="AC105" s="169" t="e">
         <f t="shared" si="33"/>
@@ -14629,10 +15191,10 @@
         <f t="shared" si="34"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AE105" s="269"/>
-      <c r="AF105" s="269"/>
-      <c r="AG105" s="269"/>
-      <c r="AH105" s="269"/>
+      <c r="AE105" s="258"/>
+      <c r="AF105" s="258"/>
+      <c r="AG105" s="258"/>
+      <c r="AH105" s="258"/>
       <c r="AI105" s="105"/>
       <c r="AJ105" s="105"/>
       <c r="AK105" s="105"/>
@@ -14642,10 +15204,10 @@
       <c r="AO105" s="95" t="s">
         <v>257</v>
       </c>
-      <c r="AP105" s="272">
+      <c r="AP105" s="261">
         <v>44548</v>
       </c>
-      <c r="AQ105" s="273"/>
+      <c r="AQ105" s="105"/>
     </row>
     <row r="106" ht="141" spans="1:43">
       <c r="A106" s="70" t="s">
@@ -14722,10 +15284,10 @@
       <c r="AO106" s="74" t="s">
         <v>385</v>
       </c>
-      <c r="AP106" s="247">
+      <c r="AP106" s="237">
         <v>44570</v>
       </c>
-      <c r="AQ106" s="242"/>
+      <c r="AQ106" s="108"/>
     </row>
     <row r="107" ht="106" spans="1:43">
       <c r="A107" s="89" t="s">
@@ -14794,10 +15356,10 @@
       <c r="AO107" s="92" t="s">
         <v>257</v>
       </c>
-      <c r="AP107" s="243">
+      <c r="AP107" s="235">
         <v>44548</v>
       </c>
-      <c r="AQ107" s="244"/>
+      <c r="AQ107" s="129"/>
     </row>
     <row r="108" ht="106" spans="1:43">
       <c r="A108" s="66" t="s">
@@ -14813,20 +15375,20 @@
         <v>212</v>
       </c>
       <c r="E108" s="126"/>
-      <c r="F108" s="251">
+      <c r="F108" s="240">
         <v>13.31</v>
       </c>
-      <c r="G108" s="251">
+      <c r="G108" s="240">
         <v>13.25</v>
       </c>
-      <c r="H108" s="251">
+      <c r="H108" s="240">
         <v>13.89</v>
       </c>
-      <c r="I108" s="255"/>
-      <c r="J108" s="255"/>
-      <c r="K108" s="255"/>
-      <c r="L108" s="255"/>
-      <c r="M108" s="255"/>
+      <c r="I108" s="244"/>
+      <c r="J108" s="244"/>
+      <c r="K108" s="244"/>
+      <c r="L108" s="244"/>
+      <c r="M108" s="244"/>
       <c r="N108" s="169" t="e">
         <f t="shared" si="17"/>
         <v>#DIV/0!</v>
@@ -14839,17 +15401,17 @@
         <f t="shared" si="19"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="Q108" s="255"/>
-      <c r="R108" s="255"/>
-      <c r="S108" s="255"/>
-      <c r="T108" s="255"/>
-      <c r="U108" s="255"/>
-      <c r="V108" s="255"/>
-      <c r="W108" s="255"/>
-      <c r="X108" s="255"/>
-      <c r="Y108" s="255"/>
-      <c r="Z108" s="255"/>
-      <c r="AA108" s="255"/>
+      <c r="Q108" s="244"/>
+      <c r="R108" s="244"/>
+      <c r="S108" s="244"/>
+      <c r="T108" s="244"/>
+      <c r="U108" s="244"/>
+      <c r="V108" s="244"/>
+      <c r="W108" s="244"/>
+      <c r="X108" s="244"/>
+      <c r="Y108" s="244"/>
+      <c r="Z108" s="244"/>
+      <c r="AA108" s="244"/>
       <c r="AB108" s="105"/>
       <c r="AC108" s="169" t="e">
         <f t="shared" si="41"/>
@@ -14859,10 +15421,10 @@
         <f t="shared" si="42"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AE108" s="269"/>
-      <c r="AF108" s="269"/>
-      <c r="AG108" s="269"/>
-      <c r="AH108" s="269"/>
+      <c r="AE108" s="258"/>
+      <c r="AF108" s="258"/>
+      <c r="AG108" s="258"/>
+      <c r="AH108" s="258"/>
       <c r="AI108" s="105"/>
       <c r="AJ108" s="105"/>
       <c r="AK108" s="105"/>
@@ -14872,10 +15434,10 @@
       <c r="AO108" s="95" t="s">
         <v>286</v>
       </c>
-      <c r="AP108" s="272">
+      <c r="AP108" s="261">
         <v>44548</v>
       </c>
-      <c r="AQ108" s="273"/>
+      <c r="AQ108" s="105"/>
     </row>
     <row r="109" ht="88" spans="1:43">
       <c r="A109" s="66" t="s">
@@ -14891,22 +15453,22 @@
         <v>71</v>
       </c>
       <c r="E109" s="126"/>
-      <c r="F109" s="251">
+      <c r="F109" s="240">
         <v>23.8</v>
       </c>
-      <c r="G109" s="251">
+      <c r="G109" s="240">
         <v>24.85</v>
       </c>
-      <c r="H109" s="251">
+      <c r="H109" s="240">
         <v>28.87</v>
       </c>
-      <c r="I109" s="255"/>
-      <c r="J109" s="251">
+      <c r="I109" s="244"/>
+      <c r="J109" s="240">
         <v>27.19</v>
       </c>
-      <c r="K109" s="255"/>
-      <c r="L109" s="255"/>
-      <c r="M109" s="255"/>
+      <c r="K109" s="244"/>
+      <c r="L109" s="244"/>
+      <c r="M109" s="244"/>
       <c r="N109" s="169" t="e">
         <f t="shared" si="17"/>
         <v>#DIV/0!</v>
@@ -14919,17 +15481,17 @@
         <f t="shared" si="19"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="Q109" s="255"/>
-      <c r="R109" s="255"/>
-      <c r="S109" s="255"/>
-      <c r="T109" s="255"/>
-      <c r="U109" s="255"/>
-      <c r="V109" s="255"/>
-      <c r="W109" s="255"/>
-      <c r="X109" s="255"/>
-      <c r="Y109" s="255"/>
-      <c r="Z109" s="255"/>
-      <c r="AA109" s="255"/>
+      <c r="Q109" s="244"/>
+      <c r="R109" s="244"/>
+      <c r="S109" s="244"/>
+      <c r="T109" s="244"/>
+      <c r="U109" s="244"/>
+      <c r="V109" s="244"/>
+      <c r="W109" s="244"/>
+      <c r="X109" s="244"/>
+      <c r="Y109" s="244"/>
+      <c r="Z109" s="244"/>
+      <c r="AA109" s="244"/>
       <c r="AB109" s="105"/>
       <c r="AC109" s="169" t="e">
         <f t="shared" si="41"/>
@@ -14939,10 +15501,10 @@
         <f t="shared" si="42"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AE109" s="269"/>
-      <c r="AF109" s="269"/>
-      <c r="AG109" s="269"/>
-      <c r="AH109" s="269"/>
+      <c r="AE109" s="258"/>
+      <c r="AF109" s="258"/>
+      <c r="AG109" s="258"/>
+      <c r="AH109" s="258"/>
       <c r="AI109" s="105"/>
       <c r="AJ109" s="105"/>
       <c r="AK109" s="105"/>
@@ -14952,10 +15514,10 @@
       <c r="AO109" s="95" t="s">
         <v>392</v>
       </c>
-      <c r="AP109" s="272">
+      <c r="AP109" s="261">
         <v>44548</v>
       </c>
-      <c r="AQ109" s="273"/>
+      <c r="AQ109" s="105"/>
     </row>
     <row r="110" ht="106" spans="1:43">
       <c r="A110" s="85" t="s">
@@ -14964,88 +15526,88 @@
       <c r="B110" s="86" t="s">
         <v>394</v>
       </c>
-      <c r="C110" s="250">
+      <c r="C110" s="239">
         <v>1.12</v>
       </c>
       <c r="D110" s="88" t="s">
         <v>263</v>
       </c>
       <c r="E110" s="121"/>
-      <c r="F110" s="254">
+      <c r="F110" s="243">
         <v>62.43</v>
       </c>
-      <c r="G110" s="254">
+      <c r="G110" s="243">
         <v>63.33</v>
       </c>
-      <c r="H110" s="254">
+      <c r="H110" s="243">
         <v>69.39</v>
       </c>
-      <c r="I110" s="257"/>
-      <c r="J110" s="254">
+      <c r="I110" s="246"/>
+      <c r="J110" s="243">
         <v>71.84</v>
       </c>
-      <c r="K110" s="254">
+      <c r="K110" s="243">
         <v>46.35</v>
       </c>
-      <c r="L110" s="254">
+      <c r="L110" s="243">
         <v>84</v>
       </c>
-      <c r="M110" s="254">
+      <c r="M110" s="243">
         <v>48.22</v>
       </c>
-      <c r="N110" s="263">
+      <c r="N110" s="252">
         <f t="shared" si="17"/>
         <v>0.549946062567422</v>
       </c>
-      <c r="O110" s="263">
+      <c r="O110" s="252">
         <f t="shared" si="18"/>
         <v>0.144761904761905</v>
       </c>
-      <c r="P110" s="263">
+      <c r="P110" s="252">
         <f t="shared" si="19"/>
         <v>0.742015761094981</v>
       </c>
-      <c r="Q110" s="254">
+      <c r="Q110" s="243">
         <v>66.99</v>
       </c>
-      <c r="R110" s="257"/>
-      <c r="S110" s="257"/>
-      <c r="T110" s="257"/>
-      <c r="U110" s="257"/>
-      <c r="V110" s="257"/>
-      <c r="W110" s="257"/>
-      <c r="X110" s="257"/>
-      <c r="Y110" s="257"/>
-      <c r="Z110" s="257"/>
-      <c r="AA110" s="257"/>
+      <c r="R110" s="246"/>
+      <c r="S110" s="246"/>
+      <c r="T110" s="246"/>
+      <c r="U110" s="246"/>
+      <c r="V110" s="246"/>
+      <c r="W110" s="246"/>
+      <c r="X110" s="246"/>
+      <c r="Y110" s="246"/>
+      <c r="Z110" s="246"/>
+      <c r="AA110" s="246"/>
       <c r="AB110" s="88" t="s">
         <v>237</v>
       </c>
-      <c r="AC110" s="263">
+      <c r="AC110" s="252">
         <f t="shared" si="41"/>
         <v>0.2025</v>
       </c>
-      <c r="AD110" s="263" t="e">
+      <c r="AD110" s="252" t="e">
         <f t="shared" si="42"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AE110" s="268"/>
-      <c r="AF110" s="268"/>
-      <c r="AG110" s="268"/>
-      <c r="AH110" s="268"/>
+      <c r="AE110" s="257"/>
+      <c r="AF110" s="257"/>
+      <c r="AG110" s="257"/>
+      <c r="AH110" s="257"/>
       <c r="AI110" s="121"/>
       <c r="AJ110" s="121"/>
       <c r="AK110" s="121"/>
       <c r="AL110" s="121"/>
       <c r="AM110" s="121"/>
       <c r="AN110" s="121"/>
-      <c r="AO110" s="277" t="s">
+      <c r="AO110" s="264" t="s">
         <v>395</v>
       </c>
-      <c r="AP110" s="278">
+      <c r="AP110" s="265">
         <v>44574</v>
       </c>
-      <c r="AQ110" s="279"/>
+      <c r="AQ110" s="121"/>
     </row>
     <row r="111" ht="106" spans="1:43">
       <c r="A111" s="89" t="s">
@@ -15140,10 +15702,10 @@
       <c r="AO111" s="92" t="s">
         <v>398</v>
       </c>
-      <c r="AP111" s="243">
+      <c r="AP111" s="235">
         <v>44557</v>
       </c>
-      <c r="AQ111" s="244"/>
+      <c r="AQ111" s="129"/>
     </row>
     <row r="112" ht="141" spans="1:43">
       <c r="A112" s="70" t="s">
@@ -15220,10 +15782,10 @@
       <c r="AO112" s="74" t="s">
         <v>401</v>
       </c>
-      <c r="AP112" s="247">
+      <c r="AP112" s="237">
         <v>44570</v>
       </c>
-      <c r="AQ112" s="242"/>
+      <c r="AQ112" s="108"/>
     </row>
     <row r="113" ht="106" spans="1:43">
       <c r="A113" s="62" t="s">
@@ -15283,10 +15845,10 @@
         <f t="shared" ref="AD113:AD122" si="44">(R113-S113)/R113</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AE113" s="270"/>
-      <c r="AF113" s="270"/>
-      <c r="AG113" s="270"/>
-      <c r="AH113" s="270"/>
+      <c r="AE113" s="259"/>
+      <c r="AF113" s="259"/>
+      <c r="AG113" s="259"/>
+      <c r="AH113" s="259"/>
       <c r="AI113" s="103"/>
       <c r="AJ113" s="103"/>
       <c r="AK113" s="103"/>
@@ -15296,10 +15858,10 @@
       <c r="AO113" s="98" t="s">
         <v>257</v>
       </c>
-      <c r="AP113" s="248">
+      <c r="AP113" s="238">
         <v>44574</v>
       </c>
-      <c r="AQ113" s="249"/>
+      <c r="AQ113" s="103"/>
     </row>
     <row r="114" ht="159" spans="1:43">
       <c r="A114" s="66" t="s">
@@ -15315,26 +15877,26 @@
         <v>150</v>
       </c>
       <c r="E114" s="105"/>
-      <c r="F114" s="251">
+      <c r="F114" s="240">
         <v>17.38</v>
       </c>
-      <c r="G114" s="251">
+      <c r="G114" s="240">
         <v>17.73</v>
       </c>
-      <c r="H114" s="251">
+      <c r="H114" s="240">
         <v>18.17</v>
       </c>
-      <c r="I114" s="255"/>
-      <c r="J114" s="251">
+      <c r="I114" s="244"/>
+      <c r="J114" s="240">
         <v>18.34</v>
       </c>
-      <c r="K114" s="251">
+      <c r="K114" s="240">
         <v>9.54</v>
       </c>
-      <c r="L114" s="251">
+      <c r="L114" s="240">
         <v>26.3</v>
       </c>
-      <c r="M114" s="251">
+      <c r="M114" s="240">
         <v>15.6</v>
       </c>
       <c r="N114" s="169">
@@ -15349,17 +15911,17 @@
         <f t="shared" si="19"/>
         <v>0.685897435897436</v>
       </c>
-      <c r="Q114" s="255"/>
-      <c r="R114" s="255"/>
-      <c r="S114" s="255"/>
-      <c r="T114" s="255"/>
-      <c r="U114" s="255"/>
-      <c r="V114" s="255"/>
-      <c r="W114" s="255"/>
-      <c r="X114" s="255"/>
-      <c r="Y114" s="255"/>
-      <c r="Z114" s="255"/>
-      <c r="AA114" s="255"/>
+      <c r="Q114" s="244"/>
+      <c r="R114" s="244"/>
+      <c r="S114" s="244"/>
+      <c r="T114" s="244"/>
+      <c r="U114" s="244"/>
+      <c r="V114" s="244"/>
+      <c r="W114" s="244"/>
+      <c r="X114" s="244"/>
+      <c r="Y114" s="244"/>
+      <c r="Z114" s="244"/>
+      <c r="AA114" s="244"/>
       <c r="AB114" s="105"/>
       <c r="AC114" s="169">
         <f t="shared" si="43"/>
@@ -15369,10 +15931,10 @@
         <f t="shared" si="44"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AE114" s="269"/>
-      <c r="AF114" s="269"/>
-      <c r="AG114" s="269"/>
-      <c r="AH114" s="269"/>
+      <c r="AE114" s="258"/>
+      <c r="AF114" s="258"/>
+      <c r="AG114" s="258"/>
+      <c r="AH114" s="258"/>
       <c r="AI114" s="105"/>
       <c r="AJ114" s="105"/>
       <c r="AK114" s="105"/>
@@ -15382,10 +15944,10 @@
       <c r="AO114" s="95" t="s">
         <v>407</v>
       </c>
-      <c r="AP114" s="272">
+      <c r="AP114" s="261">
         <v>44570</v>
       </c>
-      <c r="AQ114" s="273"/>
+      <c r="AQ114" s="105"/>
     </row>
     <row r="115" ht="106" spans="1:43">
       <c r="A115" s="62" t="s">
@@ -15457,10 +16019,10 @@
         <f t="shared" si="44"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AE115" s="270"/>
-      <c r="AF115" s="270"/>
-      <c r="AG115" s="270"/>
-      <c r="AH115" s="270"/>
+      <c r="AE115" s="259"/>
+      <c r="AF115" s="259"/>
+      <c r="AG115" s="259"/>
+      <c r="AH115" s="259"/>
       <c r="AI115" s="103"/>
       <c r="AJ115" s="103"/>
       <c r="AK115" s="103"/>
@@ -15470,10 +16032,10 @@
       <c r="AO115" s="98" t="s">
         <v>410</v>
       </c>
-      <c r="AP115" s="248">
+      <c r="AP115" s="238">
         <v>44570</v>
       </c>
-      <c r="AQ115" s="249"/>
+      <c r="AQ115" s="103"/>
     </row>
     <row r="116" ht="106" spans="1:43">
       <c r="A116" s="58" t="s">
@@ -15489,63 +16051,63 @@
         <v>50</v>
       </c>
       <c r="E116" s="116"/>
-      <c r="F116" s="256"/>
-      <c r="G116" s="256"/>
-      <c r="H116" s="256"/>
-      <c r="I116" s="256"/>
-      <c r="J116" s="256"/>
-      <c r="K116" s="256"/>
-      <c r="L116" s="256"/>
-      <c r="M116" s="256"/>
-      <c r="N116" s="260" t="e">
+      <c r="F116" s="245"/>
+      <c r="G116" s="245"/>
+      <c r="H116" s="245"/>
+      <c r="I116" s="245"/>
+      <c r="J116" s="245"/>
+      <c r="K116" s="245"/>
+      <c r="L116" s="245"/>
+      <c r="M116" s="245"/>
+      <c r="N116" s="249" t="e">
         <f t="shared" si="45"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O116" s="260" t="e">
+      <c r="O116" s="249" t="e">
         <f t="shared" si="46"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="P116" s="260" t="e">
+      <c r="P116" s="249" t="e">
         <f t="shared" si="47"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="Q116" s="256"/>
-      <c r="R116" s="256"/>
-      <c r="S116" s="256"/>
-      <c r="T116" s="256"/>
-      <c r="U116" s="256"/>
-      <c r="V116" s="256"/>
-      <c r="W116" s="256"/>
-      <c r="X116" s="256"/>
-      <c r="Y116" s="256"/>
-      <c r="Z116" s="256"/>
-      <c r="AA116" s="256"/>
+      <c r="Q116" s="245"/>
+      <c r="R116" s="245"/>
+      <c r="S116" s="245"/>
+      <c r="T116" s="245"/>
+      <c r="U116" s="245"/>
+      <c r="V116" s="245"/>
+      <c r="W116" s="245"/>
+      <c r="X116" s="245"/>
+      <c r="Y116" s="245"/>
+      <c r="Z116" s="245"/>
+      <c r="AA116" s="245"/>
       <c r="AB116" s="116"/>
-      <c r="AC116" s="260" t="e">
+      <c r="AC116" s="249" t="e">
         <f t="shared" si="43"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AD116" s="260" t="e">
+      <c r="AD116" s="249" t="e">
         <f t="shared" si="44"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AE116" s="267"/>
-      <c r="AF116" s="267"/>
-      <c r="AG116" s="267"/>
-      <c r="AH116" s="267"/>
+      <c r="AE116" s="256"/>
+      <c r="AF116" s="256"/>
+      <c r="AG116" s="256"/>
+      <c r="AH116" s="256"/>
       <c r="AI116" s="116"/>
       <c r="AJ116" s="116"/>
       <c r="AK116" s="116"/>
       <c r="AL116" s="116"/>
       <c r="AM116" s="116"/>
       <c r="AN116" s="116"/>
-      <c r="AO116" s="274" t="s">
+      <c r="AO116" s="262" t="s">
         <v>257</v>
       </c>
-      <c r="AP116" s="275">
+      <c r="AP116" s="263">
         <v>44548</v>
       </c>
-      <c r="AQ116" s="276"/>
+      <c r="AQ116" s="116"/>
     </row>
     <row r="117" ht="88" spans="1:43">
       <c r="A117" s="89" t="s">
@@ -15636,10 +16198,10 @@
       <c r="AO117" s="92" t="s">
         <v>415</v>
       </c>
-      <c r="AP117" s="243">
+      <c r="AP117" s="235">
         <v>44548</v>
       </c>
-      <c r="AQ117" s="244"/>
+      <c r="AQ117" s="129"/>
     </row>
     <row r="118" ht="106" spans="1:43">
       <c r="A118" s="62" t="s">
@@ -15713,10 +16275,10 @@
         <f t="shared" si="44"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AE118" s="270"/>
-      <c r="AF118" s="270"/>
-      <c r="AG118" s="270"/>
-      <c r="AH118" s="270"/>
+      <c r="AE118" s="259"/>
+      <c r="AF118" s="259"/>
+      <c r="AG118" s="259"/>
+      <c r="AH118" s="259"/>
       <c r="AI118" s="103"/>
       <c r="AJ118" s="65" t="s">
         <v>53</v>
@@ -15730,10 +16292,10 @@
       <c r="AO118" s="98" t="s">
         <v>410</v>
       </c>
-      <c r="AP118" s="248">
+      <c r="AP118" s="238">
         <v>44571</v>
       </c>
-      <c r="AQ118" s="249"/>
+      <c r="AQ118" s="103"/>
     </row>
     <row r="119" ht="106" spans="1:43">
       <c r="A119" s="89" t="s">
@@ -15818,10 +16380,10 @@
       <c r="AO119" s="92" t="s">
         <v>395</v>
       </c>
-      <c r="AP119" s="243">
+      <c r="AP119" s="235">
         <v>44548</v>
       </c>
-      <c r="AQ119" s="244"/>
+      <c r="AQ119" s="129"/>
     </row>
     <row r="120" ht="106" spans="1:43">
       <c r="A120" s="89" t="s">
@@ -15908,10 +16470,10 @@
       <c r="AO120" s="92" t="s">
         <v>398</v>
       </c>
-      <c r="AP120" s="243">
+      <c r="AP120" s="235">
         <v>44548</v>
       </c>
-      <c r="AQ120" s="244"/>
+      <c r="AQ120" s="129"/>
     </row>
     <row r="121" ht="106" spans="1:43">
       <c r="A121" s="89" t="s">
@@ -15980,10 +16542,10 @@
       <c r="AO121" s="92" t="s">
         <v>257</v>
       </c>
-      <c r="AP121" s="243">
+      <c r="AP121" s="235">
         <v>44548</v>
       </c>
-      <c r="AQ121" s="244"/>
+      <c r="AQ121" s="129"/>
     </row>
     <row r="122" ht="106" spans="1:43">
       <c r="A122" s="89" t="s">
@@ -16074,10 +16636,10 @@
       <c r="AO122" s="92" t="s">
         <v>398</v>
       </c>
-      <c r="AP122" s="243">
+      <c r="AP122" s="235">
         <v>44548</v>
       </c>
-      <c r="AQ122" s="244"/>
+      <c r="AQ122" s="129"/>
     </row>
   </sheetData>
   <mergeCells count="29">
@@ -16122,11 +16684,11 @@
   <dimension ref="A1:BN17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="6" ySplit="3" topLeftCell="AM4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="3" topLeftCell="G4" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C9" sqref="B8:C9"/>
+      <selection pane="bottomRight" activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6"/>
@@ -16336,7 +16898,7 @@
       </c>
       <c r="BN2" s="53"/>
     </row>
-    <row r="3" ht="173" spans="1:66">
+    <row r="3" ht="116" spans="1:66">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="2"/>
@@ -16518,7 +17080,7 @@
       <c r="A4" s="3" t="s">
         <v>473</v>
       </c>
-      <c r="B4" s="280" t="s">
+      <c r="B4" s="266" t="s">
         <v>474</v>
       </c>
       <c r="C4" s="4" t="s">
@@ -16852,7 +17414,7 @@
     </row>
     <row r="7" spans="1:66">
       <c r="A7" s="5"/>
-      <c r="B7" s="281" t="s">
+      <c r="B7" s="267" t="s">
         <v>480</v>
       </c>
       <c r="C7" s="7" t="s">
@@ -16924,7 +17486,7 @@
     </row>
     <row r="8" spans="1:66">
       <c r="A8" s="5"/>
-      <c r="B8" s="281" t="s">
+      <c r="B8" s="267" t="s">
         <v>481</v>
       </c>
       <c r="C8" s="7" t="s">
@@ -16996,7 +17558,7 @@
     </row>
     <row r="9" spans="1:66">
       <c r="A9" s="5"/>
-      <c r="B9" s="281" t="s">
+      <c r="B9" s="267" t="s">
         <v>482</v>
       </c>
       <c r="C9" s="7" t="s">
